--- a/0_Data/9_Supplementary Information/NAs_final_dataset.xlsx
+++ b/0_Data/9_Supplementary Information/NAs_final_dataset.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="179">
   <si>
     <t xml:space="preserve">Country</t>
   </si>
@@ -240,9 +240,6 @@
   </si>
   <si>
     <t xml:space="preserve">oven.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hh_type</t>
   </si>
   <si>
     <t xml:space="preserve">Province</t>
@@ -1199,13 +1196,10 @@
       <c r="DA1" t="s">
         <v>104</v>
       </c>
-      <c r="DB1" t="s">
-        <v>105</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B2" t="n">
         <v>21539</v>
@@ -1247,7 +1241,7 @@
         <v>0.352198337898695</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -1433,7 +1427,7 @@
         <v>1</v>
       </c>
       <c r="BY2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ2" t="n">
         <v>0</v>
@@ -1445,13 +1439,13 @@
         <v>0</v>
       </c>
       <c r="CC2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF2" t="n">
         <v>1</v>
@@ -1466,7 +1460,7 @@
         <v>1</v>
       </c>
       <c r="CJ2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK2" t="n">
         <v>0</v>
@@ -1517,15 +1511,12 @@
         <v>0</v>
       </c>
       <c r="DA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B3" t="n">
         <v>7776</v>
@@ -1567,7 +1558,7 @@
         <v>0.474151234567901</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -1756,22 +1747,22 @@
         <v>1</v>
       </c>
       <c r="BZ3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD3" t="n">
         <v>1</v>
       </c>
       <c r="CE3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF3" t="n">
         <v>1</v>
@@ -1780,13 +1771,13 @@
         <v>1</v>
       </c>
       <c r="CH3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK3" t="n">
         <v>0</v>
@@ -1837,15 +1828,12 @@
         <v>0</v>
       </c>
       <c r="DA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B4" t="n">
         <v>6135</v>
@@ -1887,7 +1875,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -2073,7 +2061,7 @@
         <v>1</v>
       </c>
       <c r="BY4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ4" t="n">
         <v>1</v>
@@ -2106,7 +2094,7 @@
         <v>1</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK4" t="n">
         <v>0</v>
@@ -2157,15 +2145,12 @@
         <v>0</v>
       </c>
       <c r="DA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B5" t="n">
         <v>8012</v>
@@ -2207,7 +2192,7 @@
         <v>1</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -2393,7 +2378,7 @@
         <v>1</v>
       </c>
       <c r="BY5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ5" t="n">
         <v>0</v>
@@ -2402,10 +2387,10 @@
         <v>0</v>
       </c>
       <c r="CB5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD5" t="n">
         <v>0</v>
@@ -2423,10 +2408,10 @@
         <v>0</v>
       </c>
       <c r="CI5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK5" t="n">
         <v>0</v>
@@ -2477,15 +2462,12 @@
         <v>0</v>
       </c>
       <c r="DA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B6" t="n">
         <v>7010</v>
@@ -2527,7 +2509,7 @@
         <v>1</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -2713,7 +2695,7 @@
         <v>1</v>
       </c>
       <c r="BY6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ6" t="n">
         <v>0</v>
@@ -2722,10 +2704,10 @@
         <v>0</v>
       </c>
       <c r="CB6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD6" t="n">
         <v>0</v>
@@ -2743,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="CI6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK6" t="n">
         <v>0</v>
@@ -2797,15 +2779,12 @@
         <v>0</v>
       </c>
       <c r="DA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B7" t="n">
         <v>12240</v>
@@ -2847,7 +2826,7 @@
         <v>1</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -3033,10 +3012,10 @@
         <v>1</v>
       </c>
       <c r="BY7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA7" t="n">
         <v>1</v>
@@ -3048,16 +3027,16 @@
         <v>1</v>
       </c>
       <c r="CD7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH7" t="n">
         <v>1</v>
@@ -3066,7 +3045,7 @@
         <v>1</v>
       </c>
       <c r="CJ7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK7" t="n">
         <v>0</v>
@@ -3117,15 +3096,12 @@
         <v>0</v>
       </c>
       <c r="DA7" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B8" t="n">
         <v>2966</v>
@@ -3167,7 +3143,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -3353,7 +3329,7 @@
         <v>1</v>
       </c>
       <c r="BY8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ8" t="n">
         <v>1</v>
@@ -3386,7 +3362,7 @@
         <v>1</v>
       </c>
       <c r="CJ8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK8" t="n">
         <v>0</v>
@@ -3437,15 +3413,12 @@
         <v>0</v>
       </c>
       <c r="DA8" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B9" t="n">
         <v>11859</v>
@@ -3676,19 +3649,19 @@
         <v>1</v>
       </c>
       <c r="BZ9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA9" t="n">
         <v>0</v>
       </c>
       <c r="CB9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC9" t="n">
         <v>1</v>
       </c>
       <c r="CD9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE9" t="n">
         <v>0</v>
@@ -3700,7 +3673,7 @@
         <v>1</v>
       </c>
       <c r="CH9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI9" t="n">
         <v>0</v>
@@ -3757,15 +3730,12 @@
         <v>0</v>
       </c>
       <c r="DA9" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B10" t="n">
         <v>59955</v>
@@ -3807,7 +3777,7 @@
         <v>0.311400216829289</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0647152030689684</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -3993,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="BY10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ10" t="n">
         <v>0</v>
@@ -4005,28 +3975,28 @@
         <v>0</v>
       </c>
       <c r="CC10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE10" t="n">
-        <v>0.0112250854807772</v>
+        <v>0</v>
       </c>
       <c r="CF10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG10" t="n">
         <v>1</v>
       </c>
       <c r="CH10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK10" t="n">
         <v>0</v>
@@ -4077,15 +4047,12 @@
         <v>0</v>
       </c>
       <c r="DA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B11" t="n">
         <v>2434</v>
@@ -4127,7 +4094,7 @@
         <v>0.460147904683648</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -4313,40 +4280,40 @@
         <v>1</v>
       </c>
       <c r="BY11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD11" t="n">
         <v>0</v>
       </c>
       <c r="CE11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK11" t="n">
         <v>0</v>
@@ -4397,15 +4364,12 @@
         <v>0</v>
       </c>
       <c r="DA11" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B12" t="n">
         <v>15237</v>
@@ -4447,7 +4411,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -4633,10 +4597,10 @@
         <v>1</v>
       </c>
       <c r="BY12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA12" t="n">
         <v>1</v>
@@ -4666,7 +4630,7 @@
         <v>1</v>
       </c>
       <c r="CJ12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK12" t="n">
         <v>0</v>
@@ -4717,15 +4681,12 @@
         <v>0</v>
       </c>
       <c r="DA12" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B13" t="n">
         <v>12992</v>
@@ -4767,7 +4728,7 @@
         <v>1</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -4953,19 +4914,19 @@
         <v>1</v>
       </c>
       <c r="BY13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ13" t="n">
-        <v>0</v>
+        <v>0.000923645320197044</v>
       </c>
       <c r="CA13" t="n">
-        <v>0.000923645320197044</v>
+        <v>0</v>
       </c>
       <c r="CB13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD13" t="n">
         <v>0</v>
@@ -4980,13 +4941,13 @@
         <v>0</v>
       </c>
       <c r="CH13" t="n">
-        <v>0</v>
+        <v>0.199430418719212</v>
       </c>
       <c r="CI13" t="n">
-        <v>0.199430418719212</v>
+        <v>1</v>
       </c>
       <c r="CJ13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK13" t="n">
         <v>0</v>
@@ -5037,18 +4998,15 @@
         <v>0</v>
       </c>
       <c r="DA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B14" t="n">
-        <v>87168</v>
+        <v>86866</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -5084,10 +5042,10 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0.296702918502203</v>
+        <v>0.296882554739484</v>
       </c>
       <c r="O14" t="n">
-        <v>0.000229441997063142</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -5273,7 +5231,7 @@
         <v>1</v>
       </c>
       <c r="BY14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ14" t="n">
         <v>0</v>
@@ -5282,31 +5240,31 @@
         <v>0</v>
       </c>
       <c r="CB14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC14" t="n">
         <v>1</v>
       </c>
       <c r="CD14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE14" t="n">
         <v>0</v>
       </c>
       <c r="CF14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG14" t="n">
         <v>1</v>
       </c>
       <c r="CH14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK14" t="n">
         <v>0</v>
@@ -5357,15 +5315,12 @@
         <v>0</v>
       </c>
       <c r="DA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B15" t="n">
         <v>7046</v>
@@ -5407,7 +5362,7 @@
         <v>0.810246948623332</v>
       </c>
       <c r="O15" t="n">
-        <v>0.00255464093102469</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -5593,40 +5548,40 @@
         <v>1</v>
       </c>
       <c r="BY15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD15" t="n">
         <v>0</v>
       </c>
       <c r="CE15" t="n">
-        <v>0.000283848992336077</v>
+        <v>0</v>
       </c>
       <c r="CF15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG15" t="n">
         <v>1</v>
       </c>
       <c r="CH15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK15" t="n">
         <v>0</v>
@@ -5677,15 +5632,12 @@
         <v>0</v>
       </c>
       <c r="DA15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B16" t="n">
         <v>2876</v>
@@ -5727,7 +5679,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -5913,7 +5865,7 @@
         <v>1</v>
       </c>
       <c r="BY16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ16" t="n">
         <v>1</v>
@@ -5946,7 +5898,7 @@
         <v>1</v>
       </c>
       <c r="CJ16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK16" t="n">
         <v>0</v>
@@ -5997,15 +5949,12 @@
         <v>0</v>
       </c>
       <c r="DA16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B17" t="n">
         <v>2929</v>
@@ -6047,7 +5996,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -6233,7 +6182,7 @@
         <v>1</v>
       </c>
       <c r="BY17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ17" t="n">
         <v>1</v>
@@ -6266,7 +6215,7 @@
         <v>1</v>
       </c>
       <c r="CJ17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK17" t="n">
         <v>0</v>
@@ -6317,15 +6266,12 @@
         <v>0</v>
       </c>
       <c r="DA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B18" t="n">
         <v>52412</v>
@@ -6367,7 +6313,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -6553,7 +6499,7 @@
         <v>1</v>
       </c>
       <c r="BY18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ18" t="n">
         <v>1</v>
@@ -6586,7 +6532,7 @@
         <v>1</v>
       </c>
       <c r="CJ18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK18" t="n">
         <v>0</v>
@@ -6637,15 +6583,12 @@
         <v>0</v>
       </c>
       <c r="DA18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B19" t="n">
         <v>2205</v>
@@ -6687,7 +6630,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -6873,7 +6816,7 @@
         <v>1</v>
       </c>
       <c r="BY19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ19" t="n">
         <v>1</v>
@@ -6906,7 +6849,7 @@
         <v>1</v>
       </c>
       <c r="CJ19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK19" t="n">
         <v>0</v>
@@ -6957,15 +6900,12 @@
         <v>0</v>
       </c>
       <c r="DA19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B20" t="n">
         <v>8884</v>
@@ -7193,7 +7133,7 @@
         <v>1</v>
       </c>
       <c r="BY20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ20" t="n">
         <v>0</v>
@@ -7202,10 +7142,10 @@
         <v>0</v>
       </c>
       <c r="CB20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD20" t="n">
         <v>0</v>
@@ -7214,7 +7154,7 @@
         <v>0</v>
       </c>
       <c r="CF20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG20" t="n">
         <v>1</v>
@@ -7226,7 +7166,7 @@
         <v>1</v>
       </c>
       <c r="CJ20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK20" t="n">
         <v>0</v>
@@ -7277,15 +7217,12 @@
         <v>0</v>
       </c>
       <c r="DA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B21" t="n">
         <v>28267</v>
@@ -7513,19 +7450,19 @@
         <v>1</v>
       </c>
       <c r="BY21" t="n">
-        <v>1</v>
+        <v>0.848940460607776</v>
       </c>
       <c r="BZ21" t="n">
-        <v>0.848940460607776</v>
+        <v>0</v>
       </c>
       <c r="CA21" t="n">
         <v>0</v>
       </c>
       <c r="CB21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD21" t="n">
         <v>0</v>
@@ -7534,19 +7471,19 @@
         <v>0</v>
       </c>
       <c r="CF21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG21" t="n">
         <v>1</v>
       </c>
       <c r="CH21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK21" t="n">
         <v>0</v>
@@ -7597,15 +7534,12 @@
         <v>0</v>
       </c>
       <c r="DA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B22" t="n">
         <v>22127</v>
@@ -7647,7 +7581,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -7833,7 +7767,7 @@
         <v>1</v>
       </c>
       <c r="BY22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ22" t="n">
         <v>1</v>
@@ -7866,7 +7800,7 @@
         <v>1</v>
       </c>
       <c r="CJ22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK22" t="n">
         <v>0</v>
@@ -7917,15 +7851,12 @@
         <v>0</v>
       </c>
       <c r="DA22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B23" t="n">
         <v>3395</v>
@@ -7967,7 +7898,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -8153,7 +8084,7 @@
         <v>1</v>
       </c>
       <c r="BY23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ23" t="n">
         <v>1</v>
@@ -8186,7 +8117,7 @@
         <v>1</v>
       </c>
       <c r="CJ23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK23" t="n">
         <v>0</v>
@@ -8237,15 +8168,12 @@
         <v>0</v>
       </c>
       <c r="DA23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B24" t="n">
         <v>6767</v>
@@ -8287,7 +8215,7 @@
         <v>0.780404906162258</v>
       </c>
       <c r="O24" t="n">
-        <v>1</v>
+        <v>0.441406827249889</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -8473,31 +8401,31 @@
         <v>1</v>
       </c>
       <c r="BY24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD24" t="n">
         <v>0</v>
       </c>
       <c r="CE24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH24" t="n">
         <v>1</v>
@@ -8506,7 +8434,7 @@
         <v>1</v>
       </c>
       <c r="CJ24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK24" t="n">
         <v>0</v>
@@ -8557,15 +8485,12 @@
         <v>0</v>
       </c>
       <c r="DA24" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B25" t="n">
         <v>3673</v>
@@ -8607,7 +8532,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -8793,7 +8718,7 @@
         <v>1</v>
       </c>
       <c r="BY25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ25" t="n">
         <v>1</v>
@@ -8826,7 +8751,7 @@
         <v>1</v>
       </c>
       <c r="CJ25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK25" t="n">
         <v>0</v>
@@ -8877,15 +8802,12 @@
         <v>0</v>
       </c>
       <c r="DA25" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B26" t="n">
         <v>16978</v>
@@ -8927,7 +8849,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9113,7 +9035,7 @@
         <v>1</v>
       </c>
       <c r="BY26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ26" t="n">
         <v>1</v>
@@ -9146,7 +9068,7 @@
         <v>1</v>
       </c>
       <c r="CJ26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK26" t="n">
         <v>0</v>
@@ -9197,18 +9119,15 @@
         <v>0</v>
       </c>
       <c r="DA26" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB26" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B27" t="n">
-        <v>13542</v>
+        <v>13521</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -9244,10 +9163,10 @@
         <v>1</v>
       </c>
       <c r="N27" t="n">
-        <v>0.115935607738886</v>
+        <v>0.115819835810961</v>
       </c>
       <c r="O27" t="n">
-        <v>1</v>
+        <v>0.291324606168183</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -9433,40 +9352,40 @@
         <v>1</v>
       </c>
       <c r="BY27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC27" t="n">
-        <v>1</v>
+        <v>0.753494564011538</v>
       </c>
       <c r="CD27" t="n">
-        <v>0.753876827647319</v>
+        <v>0</v>
       </c>
       <c r="CE27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH27" t="n">
-        <v>1</v>
+        <v>0.813253457584498</v>
       </c>
       <c r="CI27" t="n">
-        <v>0.813099985231133</v>
+        <v>1</v>
       </c>
       <c r="CJ27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK27" t="n">
         <v>0</v>
@@ -9517,15 +9436,12 @@
         <v>0</v>
       </c>
       <c r="DA27" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B28" t="n">
         <v>5351</v>
@@ -9567,7 +9483,7 @@
         <v>1</v>
       </c>
       <c r="O28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -9753,7 +9669,7 @@
         <v>1</v>
       </c>
       <c r="BY28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ28" t="n">
         <v>0</v>
@@ -9762,10 +9678,10 @@
         <v>0</v>
       </c>
       <c r="CB28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD28" t="n">
         <v>0</v>
@@ -9783,10 +9699,10 @@
         <v>0</v>
       </c>
       <c r="CI28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK28" t="n">
         <v>0</v>
@@ -9837,15 +9753,12 @@
         <v>0</v>
       </c>
       <c r="DA28" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB28" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B29" t="n">
         <v>6150</v>
@@ -9887,7 +9800,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10073,7 +9986,7 @@
         <v>1</v>
       </c>
       <c r="BY29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ29" t="n">
         <v>1</v>
@@ -10106,7 +10019,7 @@
         <v>1</v>
       </c>
       <c r="CJ29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK29" t="n">
         <v>0</v>
@@ -10157,15 +10070,12 @@
         <v>0</v>
       </c>
       <c r="DA29" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB29" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B30" t="n">
         <v>11534</v>
@@ -10207,7 +10117,7 @@
         <v>0.147477024449454</v>
       </c>
       <c r="O30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10393,7 +10303,7 @@
         <v>1</v>
       </c>
       <c r="BY30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ30" t="n">
         <v>0</v>
@@ -10402,10 +10312,10 @@
         <v>0</v>
       </c>
       <c r="CB30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD30" t="n">
         <v>0</v>
@@ -10417,10 +10327,10 @@
         <v>0</v>
       </c>
       <c r="CG30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI30" t="n">
         <v>0</v>
@@ -10477,15 +10387,12 @@
         <v>0</v>
       </c>
       <c r="DA30" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB30" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B31" t="n">
         <v>2029</v>
@@ -10527,7 +10434,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -10713,7 +10620,7 @@
         <v>1</v>
       </c>
       <c r="BY31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ31" t="n">
         <v>1</v>
@@ -10746,7 +10653,7 @@
         <v>1</v>
       </c>
       <c r="CJ31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK31" t="n">
         <v>0</v>
@@ -10797,15 +10704,12 @@
         <v>0</v>
       </c>
       <c r="DA31" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B32" t="n">
         <v>7185</v>
@@ -10847,7 +10751,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -11033,7 +10937,7 @@
         <v>1</v>
       </c>
       <c r="BY32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ32" t="n">
         <v>1</v>
@@ -11066,7 +10970,7 @@
         <v>1</v>
       </c>
       <c r="CJ32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK32" t="n">
         <v>0</v>
@@ -11117,15 +11021,12 @@
         <v>0</v>
       </c>
       <c r="DA32" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B33" t="n">
         <v>295116</v>
@@ -11167,7 +11068,7 @@
         <v>1</v>
       </c>
       <c r="O33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -11353,25 +11254,25 @@
         <v>1</v>
       </c>
       <c r="BY33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD33" t="n">
         <v>0</v>
       </c>
       <c r="CE33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF33" t="n">
         <v>1</v>
@@ -11386,7 +11287,7 @@
         <v>1</v>
       </c>
       <c r="CJ33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK33" t="n">
         <v>0</v>
@@ -11437,15 +11338,12 @@
         <v>0</v>
       </c>
       <c r="DA33" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB33" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B34" t="n">
         <v>101581</v>
@@ -11487,7 +11385,7 @@
         <v>0.0708203305736309</v>
       </c>
       <c r="O34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -11679,34 +11577,34 @@
         <v>1</v>
       </c>
       <c r="CA34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE34" t="n">
         <v>1</v>
       </c>
       <c r="CF34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK34" t="n">
         <v>0</v>
@@ -11757,15 +11655,12 @@
         <v>0</v>
       </c>
       <c r="DA34" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB34" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B35" t="n">
         <v>6839</v>
@@ -11807,7 +11702,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -11993,7 +11888,7 @@
         <v>1</v>
       </c>
       <c r="BY35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ35" t="n">
         <v>1</v>
@@ -12026,7 +11921,7 @@
         <v>1</v>
       </c>
       <c r="CJ35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK35" t="n">
         <v>0</v>
@@ -12077,15 +11972,12 @@
         <v>0</v>
       </c>
       <c r="DA35" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB35" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B36" t="n">
         <v>25122</v>
@@ -12127,7 +12019,7 @@
         <v>1</v>
       </c>
       <c r="O36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -12316,7 +12208,7 @@
         <v>1</v>
       </c>
       <c r="BZ36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA36" t="n">
         <v>0</v>
@@ -12331,7 +12223,7 @@
         <v>0</v>
       </c>
       <c r="CE36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF36" t="n">
         <v>1</v>
@@ -12346,7 +12238,7 @@
         <v>1</v>
       </c>
       <c r="CJ36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK36" t="n">
         <v>0</v>
@@ -12397,15 +12289,12 @@
         <v>0</v>
       </c>
       <c r="DA36" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB36" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B37" t="n">
         <v>8786</v>
@@ -12447,7 +12336,7 @@
         <v>0.201001593444116</v>
       </c>
       <c r="O37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -12633,13 +12522,13 @@
         <v>1</v>
       </c>
       <c r="BY37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ37" t="n">
-        <v>0</v>
+        <v>0.381629865695425</v>
       </c>
       <c r="CA37" t="n">
-        <v>0.381629865695425</v>
+        <v>1</v>
       </c>
       <c r="CB37" t="n">
         <v>1</v>
@@ -12654,19 +12543,19 @@
         <v>1</v>
       </c>
       <c r="CF37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK37" t="n">
         <v>0</v>
@@ -12717,15 +12606,12 @@
         <v>0</v>
       </c>
       <c r="DA37" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB37" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B38" t="n">
         <v>15010</v>
@@ -12767,7 +12653,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -12953,7 +12839,7 @@
         <v>1</v>
       </c>
       <c r="BY38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ38" t="n">
         <v>1</v>
@@ -12986,7 +12872,7 @@
         <v>1</v>
       </c>
       <c r="CJ38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK38" t="n">
         <v>0</v>
@@ -13037,15 +12923,12 @@
         <v>0</v>
       </c>
       <c r="DA38" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB38" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B39" t="n">
         <v>21714</v>
@@ -13087,7 +12970,7 @@
         <v>1</v>
       </c>
       <c r="O39" t="n">
-        <v>1</v>
+        <v>0.203325043750576</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -13273,31 +13156,31 @@
         <v>1</v>
       </c>
       <c r="BY39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD39" t="n">
         <v>0</v>
       </c>
       <c r="CE39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH39" t="n">
         <v>1</v>
@@ -13306,7 +13189,7 @@
         <v>1</v>
       </c>
       <c r="CJ39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK39" t="n">
         <v>0</v>
@@ -13357,18 +13240,15 @@
         <v>0</v>
       </c>
       <c r="DA39" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B40" t="n">
-        <v>1211</v>
+        <v>1206</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -13404,10 +13284,10 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0.562345169281586</v>
+        <v>0.562189054726368</v>
       </c>
       <c r="O40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -13593,19 +13473,19 @@
         <v>1</v>
       </c>
       <c r="BY40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ40" t="n">
-        <v>0</v>
+        <v>0.0165837479270315</v>
       </c>
       <c r="CA40" t="n">
-        <v>0.0165152766308836</v>
+        <v>0</v>
       </c>
       <c r="CB40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD40" t="n">
         <v>0</v>
@@ -13620,13 +13500,13 @@
         <v>1</v>
       </c>
       <c r="CH40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK40" t="n">
         <v>0</v>
@@ -13677,15 +13557,12 @@
         <v>0</v>
       </c>
       <c r="DA40" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB40" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B41" t="n">
         <v>8794</v>
@@ -13727,7 +13604,7 @@
         <v>0.691949056174665</v>
       </c>
       <c r="O41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -13913,7 +13790,7 @@
         <v>1</v>
       </c>
       <c r="BY41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ41" t="n">
         <v>0</v>
@@ -13922,16 +13799,16 @@
         <v>0</v>
       </c>
       <c r="CB41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD41" t="n">
         <v>0</v>
       </c>
       <c r="CE41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF41" t="n">
         <v>1</v>
@@ -13940,13 +13817,13 @@
         <v>1</v>
       </c>
       <c r="CH41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK41" t="n">
         <v>0</v>
@@ -13997,15 +13874,12 @@
         <v>0</v>
       </c>
       <c r="DA41" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB41" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B42" t="n">
         <v>3443</v>
@@ -14047,7 +13921,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -14233,7 +14107,7 @@
         <v>1</v>
       </c>
       <c r="BY42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ42" t="n">
         <v>1</v>
@@ -14266,7 +14140,7 @@
         <v>1</v>
       </c>
       <c r="CJ42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK42" t="n">
         <v>0</v>
@@ -14317,15 +14191,12 @@
         <v>0</v>
       </c>
       <c r="DA42" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB42" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B43" t="n">
         <v>3167</v>
@@ -14367,7 +14238,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -14553,7 +14424,7 @@
         <v>1</v>
       </c>
       <c r="BY43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ43" t="n">
         <v>1</v>
@@ -14586,7 +14457,7 @@
         <v>1</v>
       </c>
       <c r="CJ43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK43" t="n">
         <v>0</v>
@@ -14637,15 +14508,12 @@
         <v>0</v>
       </c>
       <c r="DA43" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B44" t="n">
         <v>3844</v>
@@ -14687,7 +14555,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -14873,7 +14741,7 @@
         <v>1</v>
       </c>
       <c r="BY44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ44" t="n">
         <v>1</v>
@@ -14906,7 +14774,7 @@
         <v>1</v>
       </c>
       <c r="CJ44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK44" t="n">
         <v>0</v>
@@ -14957,15 +14825,12 @@
         <v>0</v>
       </c>
       <c r="DA44" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB44" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B45" t="n">
         <v>15970</v>
@@ -15007,7 +14872,7 @@
         <v>0.250532247964934</v>
       </c>
       <c r="O45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -15193,10 +15058,10 @@
         <v>1</v>
       </c>
       <c r="BY45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA45" t="n">
         <v>1</v>
@@ -15226,7 +15091,7 @@
         <v>1</v>
       </c>
       <c r="CJ45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK45" t="n">
         <v>0</v>
@@ -15277,15 +15142,12 @@
         <v>0</v>
       </c>
       <c r="DA45" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB45" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B46" t="n">
         <v>4749</v>
@@ -15327,7 +15189,7 @@
         <v>0.116656138134344</v>
       </c>
       <c r="O46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -15513,40 +15375,40 @@
         <v>1</v>
       </c>
       <c r="BY46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC46" t="n">
         <v>1</v>
       </c>
       <c r="CD46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE46" t="n">
         <v>0</v>
       </c>
       <c r="CF46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI46" t="n">
         <v>1</v>
       </c>
       <c r="CJ46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK46" t="n">
         <v>0</v>
@@ -15597,15 +15459,12 @@
         <v>0</v>
       </c>
       <c r="DA46" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB46" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B47" t="n">
         <v>88899</v>
@@ -15833,7 +15692,7 @@
         <v>1</v>
       </c>
       <c r="BY47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ47" t="n">
         <v>0</v>
@@ -15842,25 +15701,25 @@
         <v>0</v>
       </c>
       <c r="CB47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC47" t="n">
         <v>1</v>
       </c>
       <c r="CD47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE47" t="n">
         <v>0</v>
       </c>
       <c r="CF47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG47" t="n">
         <v>1</v>
       </c>
       <c r="CH47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI47" t="n">
         <v>0</v>
@@ -15917,15 +15776,12 @@
         <v>0</v>
       </c>
       <c r="DA47" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB47" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B48" t="n">
         <v>6602</v>
@@ -15967,7 +15823,7 @@
         <v>1</v>
       </c>
       <c r="O48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P48" t="n">
         <v>0</v>
@@ -16153,7 +16009,7 @@
         <v>1</v>
       </c>
       <c r="BY48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ48" t="n">
         <v>0</v>
@@ -16162,10 +16018,10 @@
         <v>0</v>
       </c>
       <c r="CB48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD48" t="n">
         <v>0</v>
@@ -16180,13 +16036,13 @@
         <v>0</v>
       </c>
       <c r="CH48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI48" t="n">
         <v>1</v>
       </c>
       <c r="CJ48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK48" t="n">
         <v>0</v>
@@ -16237,15 +16093,12 @@
         <v>0</v>
       </c>
       <c r="DA48" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB48" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B49" t="n">
         <v>3648</v>
@@ -16287,7 +16140,7 @@
         <v>0.337445175438596</v>
       </c>
       <c r="O49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P49" t="n">
         <v>0</v>
@@ -16473,7 +16326,7 @@
         <v>1</v>
       </c>
       <c r="BY49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ49" t="n">
         <v>0</v>
@@ -16482,10 +16335,10 @@
         <v>0</v>
       </c>
       <c r="CB49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD49" t="n">
         <v>0</v>
@@ -16494,13 +16347,13 @@
         <v>0</v>
       </c>
       <c r="CF49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG49" t="n">
         <v>1</v>
       </c>
       <c r="CH49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI49" t="n">
         <v>0</v>
@@ -16557,15 +16410,12 @@
         <v>0</v>
       </c>
       <c r="DA49" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB49" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B50" t="n">
         <v>11197</v>
@@ -16793,13 +16643,13 @@
         <v>1</v>
       </c>
       <c r="BY50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ50" t="n">
         <v>0</v>
       </c>
       <c r="CA50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB50" t="n">
         <v>1</v>
@@ -16808,10 +16658,10 @@
         <v>1</v>
       </c>
       <c r="CD50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF50" t="n">
         <v>1</v>
@@ -16826,7 +16676,7 @@
         <v>1</v>
       </c>
       <c r="CJ50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK50" t="n">
         <v>0</v>
@@ -16877,18 +16727,15 @@
         <v>0</v>
       </c>
       <c r="DA50" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB50" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B51" t="n">
-        <v>11430</v>
+        <v>11363</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -16924,10 +16771,10 @@
         <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>0.816972878390201</v>
+        <v>0.819941916747338</v>
       </c>
       <c r="O51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P51" t="n">
         <v>0</v>
@@ -17116,22 +16963,22 @@
         <v>1</v>
       </c>
       <c r="BZ51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA51" t="n">
         <v>0</v>
       </c>
       <c r="CB51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD51" t="n">
         <v>0</v>
       </c>
       <c r="CE51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF51" t="n">
         <v>1</v>
@@ -17140,7 +16987,7 @@
         <v>1</v>
       </c>
       <c r="CH51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI51" t="n">
         <v>0</v>
@@ -17197,15 +17044,12 @@
         <v>0</v>
       </c>
       <c r="DA51" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB51" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B52" t="n">
         <v>6024</v>
@@ -17247,7 +17091,7 @@
         <v>1</v>
       </c>
       <c r="O52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P52" t="n">
         <v>0</v>
@@ -17433,7 +17277,7 @@
         <v>1</v>
       </c>
       <c r="BY52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ52" t="n">
         <v>0</v>
@@ -17442,10 +17286,10 @@
         <v>0</v>
       </c>
       <c r="CB52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD52" t="n">
         <v>0</v>
@@ -17460,13 +17304,13 @@
         <v>0</v>
       </c>
       <c r="CH52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI52" t="n">
         <v>1</v>
       </c>
       <c r="CJ52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK52" t="n">
         <v>0</v>
@@ -17517,15 +17361,12 @@
         <v>0</v>
       </c>
       <c r="DA52" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB52" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B53" t="n">
         <v>22110</v>
@@ -17567,7 +17408,7 @@
         <v>0.823337856173677</v>
       </c>
       <c r="O53" t="n">
-        <v>1</v>
+        <v>0.194165535956581</v>
       </c>
       <c r="P53" t="n">
         <v>0</v>
@@ -17753,7 +17594,7 @@
         <v>1</v>
       </c>
       <c r="BY53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ53" t="n">
         <v>0</v>
@@ -17762,31 +17603,31 @@
         <v>0</v>
       </c>
       <c r="CB53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC53" t="n">
         <v>1</v>
       </c>
       <c r="CD53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE53" t="n">
         <v>0</v>
       </c>
       <c r="CF53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG53" t="n">
         <v>1</v>
       </c>
       <c r="CH53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK53" t="n">
         <v>0</v>
@@ -17837,18 +17678,15 @@
         <v>0</v>
       </c>
       <c r="DA53" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB53" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B54" t="n">
-        <v>6851</v>
+        <v>6850</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -17884,10 +17722,10 @@
         <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>0.24273828638155</v>
+        <v>0.242773722627737</v>
       </c>
       <c r="O54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P54" t="n">
         <v>0</v>
@@ -18073,19 +17911,19 @@
         <v>0</v>
       </c>
       <c r="BY54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD54" t="n">
         <v>0</v>
@@ -18097,16 +17935,16 @@
         <v>0</v>
       </c>
       <c r="CG54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK54" t="n">
         <v>0</v>
@@ -18157,15 +17995,12 @@
         <v>0</v>
       </c>
       <c r="DA54" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB54" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B55" t="n">
         <v>14408</v>
@@ -18207,7 +18042,7 @@
         <v>0</v>
       </c>
       <c r="O55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P55" t="n">
         <v>0</v>
@@ -18393,7 +18228,7 @@
         <v>1</v>
       </c>
       <c r="BY55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ55" t="n">
         <v>1</v>
@@ -18426,7 +18261,7 @@
         <v>1</v>
       </c>
       <c r="CJ55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK55" t="n">
         <v>0</v>
@@ -18477,15 +18312,12 @@
         <v>0</v>
       </c>
       <c r="DA55" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB55" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B56" t="n">
         <v>3363</v>
@@ -18527,7 +18359,7 @@
         <v>0.2019030627416</v>
       </c>
       <c r="O56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P56" t="n">
         <v>0</v>
@@ -18713,10 +18545,10 @@
         <v>1</v>
       </c>
       <c r="BY56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA56" t="n">
         <v>1</v>
@@ -18746,7 +18578,7 @@
         <v>1</v>
       </c>
       <c r="CJ56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK56" t="n">
         <v>0</v>
@@ -18797,15 +18629,12 @@
         <v>0</v>
       </c>
       <c r="DA56" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB56" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B57" t="n">
         <v>17986</v>
@@ -18847,7 +18676,7 @@
         <v>1</v>
       </c>
       <c r="O57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P57" t="n">
         <v>0</v>
@@ -19033,10 +18862,10 @@
         <v>1</v>
       </c>
       <c r="BY57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA57" t="n">
         <v>1</v>
@@ -19048,10 +18877,10 @@
         <v>1</v>
       </c>
       <c r="CD57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF57" t="n">
         <v>1</v>
@@ -19066,7 +18895,7 @@
         <v>1</v>
       </c>
       <c r="CJ57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK57" t="n">
         <v>0</v>
@@ -19117,15 +18946,12 @@
         <v>0</v>
       </c>
       <c r="DA57" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B58" t="n">
         <v>34542</v>
@@ -19353,19 +19179,19 @@
         <v>1</v>
       </c>
       <c r="BY58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD58" t="n">
         <v>0</v>
@@ -19374,13 +19200,13 @@
         <v>0</v>
       </c>
       <c r="CF58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG58" t="n">
         <v>1</v>
       </c>
       <c r="CH58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI58" t="n">
         <v>0</v>
@@ -19437,15 +19263,12 @@
         <v>0</v>
       </c>
       <c r="DA58" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB58" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B59" t="n">
         <v>41540</v>
@@ -19487,7 +19310,7 @@
         <v>1</v>
       </c>
       <c r="O59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P59" t="n">
         <v>0</v>
@@ -19673,10 +19496,10 @@
         <v>0</v>
       </c>
       <c r="BY59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA59" t="n">
         <v>1</v>
@@ -19688,10 +19511,10 @@
         <v>1</v>
       </c>
       <c r="CD59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF59" t="n">
         <v>1</v>
@@ -19706,7 +19529,7 @@
         <v>1</v>
       </c>
       <c r="CJ59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK59" t="n">
         <v>0</v>
@@ -19757,15 +19580,12 @@
         <v>0</v>
       </c>
       <c r="DA59" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB59" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B60" t="n">
         <v>37148</v>
@@ -19807,7 +19627,7 @@
         <v>0</v>
       </c>
       <c r="O60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P60" t="n">
         <v>0</v>
@@ -19993,7 +19813,7 @@
         <v>1</v>
       </c>
       <c r="BY60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ60" t="n">
         <v>1</v>
@@ -20026,7 +19846,7 @@
         <v>1</v>
       </c>
       <c r="CJ60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK60" t="n">
         <v>0</v>
@@ -20077,15 +19897,12 @@
         <v>0</v>
       </c>
       <c r="DA60" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB60" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B61" t="n">
         <v>11398</v>
@@ -20127,7 +19944,7 @@
         <v>0</v>
       </c>
       <c r="O61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P61" t="n">
         <v>0</v>
@@ -20313,7 +20130,7 @@
         <v>1</v>
       </c>
       <c r="BY61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ61" t="n">
         <v>1</v>
@@ -20346,7 +20163,7 @@
         <v>1</v>
       </c>
       <c r="CJ61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK61" t="n">
         <v>0</v>
@@ -20397,15 +20214,12 @@
         <v>0</v>
       </c>
       <c r="DA61" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB61" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B62" t="n">
         <v>5410</v>
@@ -20447,7 +20261,7 @@
         <v>0.155822550831793</v>
       </c>
       <c r="O62" t="n">
-        <v>0.0268022181146026</v>
+        <v>0</v>
       </c>
       <c r="P62" t="n">
         <v>0</v>
@@ -20633,28 +20447,28 @@
         <v>1</v>
       </c>
       <c r="BY62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC62" t="n">
         <v>1</v>
       </c>
       <c r="CD62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE62" t="n">
-        <v>0.0149722735674677</v>
+        <v>0</v>
       </c>
       <c r="CF62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG62" t="n">
         <v>1</v>
@@ -20663,7 +20477,7 @@
         <v>1</v>
       </c>
       <c r="CI62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ62" t="n">
         <v>0</v>
@@ -20717,15 +20531,12 @@
         <v>0</v>
       </c>
       <c r="DA62" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB62" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B63" t="n">
         <v>30625</v>
@@ -20767,7 +20578,7 @@
         <v>0</v>
       </c>
       <c r="O63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P63" t="n">
         <v>0</v>
@@ -20953,7 +20764,7 @@
         <v>1</v>
       </c>
       <c r="BY63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ63" t="n">
         <v>1</v>
@@ -20986,7 +20797,7 @@
         <v>1</v>
       </c>
       <c r="CJ63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK63" t="n">
         <v>0</v>
@@ -21037,15 +20848,12 @@
         <v>0</v>
       </c>
       <c r="DA63" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB63" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B64" t="n">
         <v>14577</v>
@@ -21087,7 +20895,7 @@
         <v>0.0517939219318104</v>
       </c>
       <c r="O64" t="n">
-        <v>1</v>
+        <v>0.233244151745901</v>
       </c>
       <c r="P64" t="n">
         <v>0</v>
@@ -21273,7 +21081,7 @@
         <v>1</v>
       </c>
       <c r="BY64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ64" t="n">
         <v>0</v>
@@ -21282,10 +21090,10 @@
         <v>0</v>
       </c>
       <c r="CB64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD64" t="n">
         <v>0</v>
@@ -21294,19 +21102,19 @@
         <v>0</v>
       </c>
       <c r="CF64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI64" t="n">
         <v>1</v>
       </c>
       <c r="CJ64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK64" t="n">
         <v>0</v>
@@ -21357,15 +21165,12 @@
         <v>0</v>
       </c>
       <c r="DA64" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB64" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B65" t="n">
         <v>7156</v>
@@ -21407,7 +21212,7 @@
         <v>1</v>
       </c>
       <c r="O65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P65" t="n">
         <v>0</v>
@@ -21593,7 +21398,7 @@
         <v>1</v>
       </c>
       <c r="BY65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ65" t="n">
         <v>0</v>
@@ -21602,10 +21407,10 @@
         <v>0</v>
       </c>
       <c r="CB65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD65" t="n">
         <v>0</v>
@@ -21623,10 +21428,10 @@
         <v>0</v>
       </c>
       <c r="CI65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK65" t="n">
         <v>0</v>
@@ -21677,15 +21482,12 @@
         <v>0</v>
       </c>
       <c r="DA65" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB65" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B66" t="n">
         <v>23622</v>
@@ -21913,7 +21715,7 @@
         <v>1</v>
       </c>
       <c r="BY66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ66" t="n">
         <v>0</v>
@@ -21922,7 +21724,7 @@
         <v>0</v>
       </c>
       <c r="CB66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC66" t="n">
         <v>1</v>
@@ -21931,10 +21733,10 @@
         <v>0</v>
       </c>
       <c r="CE66" t="n">
-        <v>0.0329777326221319</v>
+        <v>0</v>
       </c>
       <c r="CF66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG66" t="n">
         <v>1</v>
@@ -21946,7 +21748,7 @@
         <v>1</v>
       </c>
       <c r="CJ66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK66" t="n">
         <v>0</v>
@@ -21997,15 +21799,12 @@
         <v>0</v>
       </c>
       <c r="DA66" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB66" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B67" t="n">
         <v>2025</v>
@@ -22047,7 +21846,7 @@
         <v>0.387654320987654</v>
       </c>
       <c r="O67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P67" t="n">
         <v>0</v>
@@ -22233,7 +22032,7 @@
         <v>1</v>
       </c>
       <c r="BY67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ67" t="n">
         <v>0</v>
@@ -22242,19 +22041,19 @@
         <v>0</v>
       </c>
       <c r="CB67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD67" t="n">
         <v>0</v>
       </c>
       <c r="CE67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG67" t="n">
         <v>0</v>
@@ -22263,10 +22062,10 @@
         <v>0</v>
       </c>
       <c r="CI67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK67" t="n">
         <v>0</v>
@@ -22317,15 +22116,12 @@
         <v>0</v>
       </c>
       <c r="DA67" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB67" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B68" t="n">
         <v>4785</v>
@@ -22367,7 +22163,7 @@
         <v>0</v>
       </c>
       <c r="O68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P68" t="n">
         <v>0</v>
@@ -22553,7 +22349,7 @@
         <v>1</v>
       </c>
       <c r="BY68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ68" t="n">
         <v>1</v>
@@ -22586,7 +22382,7 @@
         <v>1</v>
       </c>
       <c r="CJ68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK68" t="n">
         <v>0</v>
@@ -22637,15 +22433,12 @@
         <v>0</v>
       </c>
       <c r="DA68" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB68" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B69" t="n">
         <v>2871</v>
@@ -22687,7 +22480,7 @@
         <v>0</v>
       </c>
       <c r="O69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P69" t="n">
         <v>0</v>
@@ -22873,7 +22666,7 @@
         <v>1</v>
       </c>
       <c r="BY69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ69" t="n">
         <v>1</v>
@@ -22906,7 +22699,7 @@
         <v>1</v>
       </c>
       <c r="CJ69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK69" t="n">
         <v>0</v>
@@ -22957,15 +22750,12 @@
         <v>0</v>
       </c>
       <c r="DA69" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB69" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B70" t="n">
         <v>6171</v>
@@ -23007,7 +22797,7 @@
         <v>1</v>
       </c>
       <c r="O70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P70" t="n">
         <v>0</v>
@@ -23193,19 +22983,19 @@
         <v>1</v>
       </c>
       <c r="BY70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ70" t="n">
-        <v>0</v>
+        <v>0.00777831793874575</v>
       </c>
       <c r="CA70" t="n">
-        <v>0.00777831793874575</v>
+        <v>0</v>
       </c>
       <c r="CB70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD70" t="n">
         <v>0</v>
@@ -23223,10 +23013,10 @@
         <v>0</v>
       </c>
       <c r="CI70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK70" t="n">
         <v>0</v>
@@ -23277,15 +23067,12 @@
         <v>0</v>
       </c>
       <c r="DA70" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB70" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B71" t="n">
         <v>42711</v>
@@ -23327,7 +23114,7 @@
         <v>0.242232680105828</v>
       </c>
       <c r="O71" t="n">
-        <v>0.0578305354592494</v>
+        <v>0</v>
       </c>
       <c r="P71" t="n">
         <v>0</v>
@@ -23513,7 +23300,7 @@
         <v>1</v>
       </c>
       <c r="BY71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ71" t="n">
         <v>0</v>
@@ -23522,31 +23309,31 @@
         <v>0</v>
       </c>
       <c r="CB71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC71" t="n">
         <v>1</v>
       </c>
       <c r="CD71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK71" t="n">
         <v>0</v>
@@ -23597,15 +23384,12 @@
         <v>0</v>
       </c>
       <c r="DA71" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB71" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B72" t="n">
         <v>10060</v>
@@ -23647,7 +23431,7 @@
         <v>0.306063618290258</v>
       </c>
       <c r="O72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P72" t="n">
         <v>0</v>
@@ -23839,19 +23623,19 @@
         <v>1</v>
       </c>
       <c r="CA72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB72" t="n">
         <v>0</v>
       </c>
       <c r="CC72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF72" t="n">
         <v>1</v>
@@ -23866,7 +23650,7 @@
         <v>1</v>
       </c>
       <c r="CJ72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK72" t="n">
         <v>0</v>
@@ -23917,15 +23701,12 @@
         <v>0</v>
       </c>
       <c r="DA72" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB72" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B73" t="n">
         <v>15627</v>
@@ -23967,7 +23748,7 @@
         <v>0.0998912139246177</v>
       </c>
       <c r="O73" t="n">
-        <v>1</v>
+        <v>0.151852562871952</v>
       </c>
       <c r="P73" t="n">
         <v>0</v>
@@ -24156,22 +23937,22 @@
         <v>1</v>
       </c>
       <c r="BZ73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA73" t="n">
         <v>0</v>
       </c>
       <c r="CB73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD73" t="n">
         <v>0</v>
       </c>
       <c r="CE73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF73" t="n">
         <v>1</v>
@@ -24186,7 +23967,7 @@
         <v>1</v>
       </c>
       <c r="CJ73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK73" t="n">
         <v>0</v>
@@ -24237,15 +24018,12 @@
         <v>0</v>
       </c>
       <c r="DA73" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB73" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B74" t="n">
         <v>6888</v>
@@ -24473,13 +24251,13 @@
         <v>1</v>
       </c>
       <c r="BY74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB74" t="n">
         <v>0</v>
@@ -24491,22 +24269,22 @@
         <v>0</v>
       </c>
       <c r="CE74" t="n">
-        <v>0.00624274099883856</v>
+        <v>0</v>
       </c>
       <c r="CF74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG74" t="n">
         <v>1</v>
       </c>
       <c r="CH74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK74" t="n">
         <v>0</v>
@@ -24557,15 +24335,12 @@
         <v>0</v>
       </c>
       <c r="DA74" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB74" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B75" t="n">
         <v>22964</v>
@@ -24607,7 +24382,7 @@
         <v>1</v>
       </c>
       <c r="O75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P75" t="n">
         <v>0</v>
@@ -24793,13 +24568,13 @@
         <v>1</v>
       </c>
       <c r="BY75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB75" t="n">
         <v>0</v>
@@ -24811,7 +24586,7 @@
         <v>0</v>
       </c>
       <c r="CE75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF75" t="n">
         <v>1</v>
@@ -24820,13 +24595,13 @@
         <v>1</v>
       </c>
       <c r="CH75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK75" t="n">
         <v>0</v>
@@ -24877,9 +24652,6 @@
         <v>0</v>
       </c>
       <c r="DA75" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB75" t="n">
         <v>0</v>
       </c>
     </row>

--- a/0_Data/9_Supplementary Information/NAs_final_dataset.xlsx
+++ b/0_Data/9_Supplementary Information/NAs_final_dataset.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="193">
   <si>
     <t>Country</t>
   </si>
@@ -507,6 +507,9 @@
     <t>MNG</t>
   </si>
   <si>
+    <t>MOZ</t>
+  </si>
+  <si>
     <t>MWI</t>
   </si>
   <si>
@@ -544,6 +547,9 @@
   </si>
   <si>
     <t>ROU</t>
+  </si>
+  <si>
+    <t>RUS</t>
   </si>
   <si>
     <t>RWA</t>
@@ -636,6 +642,16 @@
   <dxfs count="3">
     <dxf>
       <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -651,16 +667,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -956,10 +962,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DB86"/>
+  <dimension ref="A1:DB88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AT1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="CQ20" sqref="CQ20"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="BU47" sqref="BU47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11129,10 +11135,10 @@
         <v>1</v>
       </c>
       <c r="CD32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF32">
         <v>1</v>
@@ -19209,7 +19215,7 @@
         <v>162</v>
       </c>
       <c r="B58">
-        <v>11374</v>
+        <v>11335</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -19245,7 +19251,7 @@
         <v>0</v>
       </c>
       <c r="N58">
-        <v>0.81932477580446605</v>
+        <v>1</v>
       </c>
       <c r="O58">
         <v>0</v>
@@ -19380,13 +19386,13 @@
         <v>0</v>
       </c>
       <c r="BG58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH58">
         <v>0</v>
       </c>
       <c r="BI58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ58">
         <v>0</v>
@@ -19398,10 +19404,10 @@
         <v>1</v>
       </c>
       <c r="BM58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO58">
         <v>1</v>
@@ -19416,13 +19422,13 @@
         <v>1</v>
       </c>
       <c r="BS58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT58">
         <v>1</v>
       </c>
       <c r="BU58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV58">
         <v>1</v>
@@ -19434,7 +19440,7 @@
         <v>1</v>
       </c>
       <c r="BY58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ58">
         <v>0</v>
@@ -19461,10 +19467,10 @@
         <v>1</v>
       </c>
       <c r="CH58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ58">
         <v>0</v>
@@ -19529,7 +19535,7 @@
         <v>163</v>
       </c>
       <c r="B59">
-        <v>6024</v>
+        <v>11374</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -19565,7 +19571,7 @@
         <v>0</v>
       </c>
       <c r="N59">
-        <v>9.7277556440903107E-2</v>
+        <v>0.81932477580446605</v>
       </c>
       <c r="O59">
         <v>0</v>
@@ -19706,7 +19712,7 @@
         <v>0</v>
       </c>
       <c r="BI59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ59">
         <v>0</v>
@@ -19721,7 +19727,7 @@
         <v>0</v>
       </c>
       <c r="BN59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO59">
         <v>1</v>
@@ -19736,10 +19742,10 @@
         <v>1</v>
       </c>
       <c r="BS59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU59">
         <v>1</v>
@@ -19748,13 +19754,13 @@
         <v>1</v>
       </c>
       <c r="BW59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX59">
         <v>1</v>
       </c>
       <c r="BY59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ59">
         <v>0</v>
@@ -19775,16 +19781,16 @@
         <v>0</v>
       </c>
       <c r="CF59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ59">
         <v>0</v>
@@ -19849,7 +19855,7 @@
         <v>164</v>
       </c>
       <c r="B60">
-        <v>22110</v>
+        <v>6024</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -19885,7 +19891,7 @@
         <v>0</v>
       </c>
       <c r="N60">
-        <v>0.82333785617367705</v>
+        <v>9.7277556440903107E-2</v>
       </c>
       <c r="O60">
         <v>0</v>
@@ -20035,13 +20041,13 @@
         <v>0</v>
       </c>
       <c r="BL60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM60">
         <v>0</v>
       </c>
       <c r="BN60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO60">
         <v>1</v>
@@ -20056,19 +20062,19 @@
         <v>1</v>
       </c>
       <c r="BS60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU60">
         <v>1</v>
       </c>
       <c r="BV60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX60">
         <v>1</v>
@@ -20086,7 +20092,7 @@
         <v>1</v>
       </c>
       <c r="CC60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD60">
         <v>0</v>
@@ -20095,13 +20101,13 @@
         <v>0</v>
       </c>
       <c r="CF60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI60">
         <v>1</v>
@@ -20169,7 +20175,7 @@
         <v>165</v>
       </c>
       <c r="B61">
-        <v>6850</v>
+        <v>22110</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -20205,7 +20211,7 @@
         <v>0</v>
       </c>
       <c r="N61">
-        <v>0.242773722627737</v>
+        <v>0.82333785617367705</v>
       </c>
       <c r="O61">
         <v>0</v>
@@ -20355,13 +20361,13 @@
         <v>0</v>
       </c>
       <c r="BL61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO61">
         <v>1</v>
@@ -20379,25 +20385,25 @@
         <v>0</v>
       </c>
       <c r="BT61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU61">
         <v>1</v>
       </c>
       <c r="BV61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW61">
         <v>1</v>
       </c>
       <c r="BX61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY61">
         <v>0</v>
       </c>
       <c r="BZ61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA61">
         <v>0</v>
@@ -20406,7 +20412,7 @@
         <v>1</v>
       </c>
       <c r="CC61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD61">
         <v>0</v>
@@ -20415,7 +20421,7 @@
         <v>0</v>
       </c>
       <c r="CF61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG61">
         <v>1</v>
@@ -20489,7 +20495,7 @@
         <v>166</v>
       </c>
       <c r="B62">
-        <v>14408</v>
+        <v>6850</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -20519,13 +20525,13 @@
         <v>0</v>
       </c>
       <c r="L62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M62">
         <v>0</v>
       </c>
       <c r="N62">
-        <v>0</v>
+        <v>0.242773722627737</v>
       </c>
       <c r="O62">
         <v>0</v>
@@ -20561,7 +20567,7 @@
         <v>0</v>
       </c>
       <c r="Z62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA62">
         <v>0</v>
@@ -20573,10 +20579,10 @@
         <v>0</v>
       </c>
       <c r="AD62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF62">
         <v>0</v>
@@ -20651,28 +20657,28 @@
         <v>0</v>
       </c>
       <c r="BD62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE62">
         <v>1</v>
       </c>
       <c r="BF62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL62">
         <v>1</v>
@@ -20687,19 +20693,19 @@
         <v>1</v>
       </c>
       <c r="BP62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR62">
         <v>1</v>
       </c>
       <c r="BS62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU62">
         <v>1</v>
@@ -20711,37 +20717,37 @@
         <v>1</v>
       </c>
       <c r="BX62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB62">
         <v>1</v>
       </c>
       <c r="CC62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG62">
         <v>1</v>
       </c>
       <c r="CH62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI62">
         <v>1</v>
@@ -20809,7 +20815,7 @@
         <v>167</v>
       </c>
       <c r="B63">
-        <v>3363</v>
+        <v>14408</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -20839,13 +20845,13 @@
         <v>0</v>
       </c>
       <c r="L63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M63">
         <v>0</v>
       </c>
       <c r="N63">
-        <v>0.2019030627416</v>
+        <v>0</v>
       </c>
       <c r="O63">
         <v>0</v>
@@ -20893,10 +20899,10 @@
         <v>0</v>
       </c>
       <c r="AD63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF63">
         <v>0</v>
@@ -20977,10 +20983,10 @@
         <v>1</v>
       </c>
       <c r="BF63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH63">
         <v>1</v>
@@ -20989,10 +20995,10 @@
         <v>1</v>
       </c>
       <c r="BJ63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL63">
         <v>1</v>
@@ -21007,13 +21013,13 @@
         <v>1</v>
       </c>
       <c r="BP63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS63">
         <v>1</v>
@@ -21022,10 +21028,10 @@
         <v>1</v>
       </c>
       <c r="BU63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW63">
         <v>1</v>
@@ -21034,10 +21040,10 @@
         <v>1</v>
       </c>
       <c r="BY63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA63">
         <v>1</v>
@@ -21129,7 +21135,7 @@
         <v>168</v>
       </c>
       <c r="B64">
-        <v>23886</v>
+        <v>3363</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -21159,13 +21165,13 @@
         <v>0</v>
       </c>
       <c r="L64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M64">
         <v>0</v>
       </c>
       <c r="N64">
-        <v>0.20154065142761499</v>
+        <v>0.2019030627416</v>
       </c>
       <c r="O64">
         <v>0</v>
@@ -21201,7 +21207,7 @@
         <v>0</v>
       </c>
       <c r="Z64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA64">
         <v>0</v>
@@ -21297,10 +21303,10 @@
         <v>1</v>
       </c>
       <c r="BF64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH64">
         <v>1</v>
@@ -21309,10 +21315,10 @@
         <v>1</v>
       </c>
       <c r="BJ64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL64">
         <v>1</v>
@@ -21327,13 +21333,13 @@
         <v>1</v>
       </c>
       <c r="BP64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS64">
         <v>1</v>
@@ -21342,10 +21348,10 @@
         <v>1</v>
       </c>
       <c r="BU64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW64">
         <v>1</v>
@@ -21369,10 +21375,10 @@
         <v>1</v>
       </c>
       <c r="CD64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF64">
         <v>1</v>
@@ -21449,7 +21455,7 @@
         <v>169</v>
       </c>
       <c r="B65">
-        <v>34542</v>
+        <v>23886</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -21473,19 +21479,19 @@
         <v>0</v>
       </c>
       <c r="J65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K65">
         <v>0</v>
       </c>
       <c r="L65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M65">
         <v>0</v>
       </c>
       <c r="N65">
-        <v>0.14147993746743101</v>
+        <v>0.20154065142761499</v>
       </c>
       <c r="O65">
         <v>0</v>
@@ -21617,46 +21623,46 @@
         <v>1</v>
       </c>
       <c r="BF65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH65">
         <v>1</v>
       </c>
       <c r="BI65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL65">
         <v>1</v>
       </c>
       <c r="BM65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO65">
         <v>1</v>
       </c>
       <c r="BP65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR65">
         <v>1</v>
       </c>
       <c r="BS65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT65">
         <v>1</v>
@@ -21677,16 +21683,16 @@
         <v>0</v>
       </c>
       <c r="BZ65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB65">
         <v>1</v>
       </c>
       <c r="CC65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD65">
         <v>0</v>
@@ -21701,10 +21707,10 @@
         <v>1</v>
       </c>
       <c r="CH65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ65">
         <v>0</v>
@@ -21769,7 +21775,7 @@
         <v>170</v>
       </c>
       <c r="B66">
-        <v>41540</v>
+        <v>34542</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -21793,19 +21799,19 @@
         <v>0</v>
       </c>
       <c r="J66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K66">
         <v>0</v>
       </c>
       <c r="L66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N66">
-        <v>1</v>
+        <v>0.14147993746743101</v>
       </c>
       <c r="O66">
         <v>0</v>
@@ -21853,10 +21859,10 @@
         <v>0</v>
       </c>
       <c r="AD66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF66">
         <v>0</v>
@@ -21931,7 +21937,7 @@
         <v>0</v>
       </c>
       <c r="BD66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE66">
         <v>1</v>
@@ -21946,7 +21952,7 @@
         <v>1</v>
       </c>
       <c r="BI66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ66">
         <v>0</v>
@@ -21958,10 +21964,10 @@
         <v>1</v>
       </c>
       <c r="BM66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO66">
         <v>1</v>
@@ -21979,7 +21985,7 @@
         <v>0</v>
       </c>
       <c r="BT66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU66">
         <v>1</v>
@@ -21991,22 +21997,22 @@
         <v>1</v>
       </c>
       <c r="BX66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY66">
         <v>0</v>
       </c>
       <c r="BZ66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB66">
         <v>1</v>
       </c>
       <c r="CC66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD66">
         <v>0</v>
@@ -22021,10 +22027,10 @@
         <v>1</v>
       </c>
       <c r="CH66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ66">
         <v>0</v>
@@ -22089,7 +22095,7 @@
         <v>171</v>
       </c>
       <c r="B67">
-        <v>37148</v>
+        <v>41540</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -22122,10 +22128,10 @@
         <v>1</v>
       </c>
       <c r="M67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O67">
         <v>0</v>
@@ -22161,7 +22167,7 @@
         <v>0</v>
       </c>
       <c r="Z67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA67">
         <v>0</v>
@@ -22251,16 +22257,16 @@
         <v>0</v>
       </c>
       <c r="BD67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE67">
         <v>1</v>
       </c>
       <c r="BF67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH67">
         <v>1</v>
@@ -22269,10 +22275,10 @@
         <v>1</v>
       </c>
       <c r="BJ67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL67">
         <v>1</v>
@@ -22287,19 +22293,19 @@
         <v>1</v>
       </c>
       <c r="BP67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR67">
         <v>1</v>
       </c>
       <c r="BS67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU67">
         <v>1</v>
@@ -22311,13 +22317,13 @@
         <v>1</v>
       </c>
       <c r="BX67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA67">
         <v>1</v>
@@ -22329,10 +22335,10 @@
         <v>1</v>
       </c>
       <c r="CD67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF67">
         <v>1</v>
@@ -22409,7 +22415,7 @@
         <v>172</v>
       </c>
       <c r="B68">
-        <v>11398</v>
+        <v>37148</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -22729,7 +22735,7 @@
         <v>173</v>
       </c>
       <c r="B69">
-        <v>5410</v>
+        <v>11398</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -22759,13 +22765,13 @@
         <v>0</v>
       </c>
       <c r="L69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M69">
         <v>0</v>
       </c>
       <c r="N69">
-        <v>0.155822550831793</v>
+        <v>0</v>
       </c>
       <c r="O69">
         <v>0</v>
@@ -22801,7 +22807,7 @@
         <v>0</v>
       </c>
       <c r="Z69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA69">
         <v>0</v>
@@ -22813,10 +22819,10 @@
         <v>0</v>
       </c>
       <c r="AD69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF69">
         <v>0</v>
@@ -22891,34 +22897,34 @@
         <v>0</v>
       </c>
       <c r="BD69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE69">
         <v>1</v>
       </c>
       <c r="BF69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH69">
         <v>1</v>
       </c>
       <c r="BI69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL69">
         <v>1</v>
       </c>
       <c r="BM69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN69">
         <v>1</v>
@@ -22927,16 +22933,16 @@
         <v>1</v>
       </c>
       <c r="BP69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR69">
         <v>1</v>
       </c>
       <c r="BS69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT69">
         <v>1</v>
@@ -22945,7 +22951,7 @@
         <v>1</v>
       </c>
       <c r="BV69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW69">
         <v>1</v>
@@ -22954,13 +22960,13 @@
         <v>1</v>
       </c>
       <c r="BY69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB69">
         <v>1</v>
@@ -22969,10 +22975,10 @@
         <v>1</v>
       </c>
       <c r="CD69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF69">
         <v>1</v>
@@ -22984,7 +22990,7 @@
         <v>1</v>
       </c>
       <c r="CI69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ69">
         <v>0</v>
@@ -23049,7 +23055,7 @@
         <v>174</v>
       </c>
       <c r="B70">
-        <v>30625</v>
+        <v>5410</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -23079,13 +23085,13 @@
         <v>0</v>
       </c>
       <c r="L70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M70">
         <v>0</v>
       </c>
       <c r="N70">
-        <v>0</v>
+        <v>0.155822550831793</v>
       </c>
       <c r="O70">
         <v>0</v>
@@ -23121,7 +23127,7 @@
         <v>0</v>
       </c>
       <c r="Z70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA70">
         <v>0</v>
@@ -23133,10 +23139,10 @@
         <v>0</v>
       </c>
       <c r="AD70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF70">
         <v>0</v>
@@ -23211,34 +23217,34 @@
         <v>0</v>
       </c>
       <c r="BD70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE70">
         <v>1</v>
       </c>
       <c r="BF70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH70">
         <v>1</v>
       </c>
       <c r="BI70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL70">
         <v>1</v>
       </c>
       <c r="BM70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN70">
         <v>1</v>
@@ -23247,16 +23253,16 @@
         <v>1</v>
       </c>
       <c r="BP70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR70">
         <v>1</v>
       </c>
       <c r="BS70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT70">
         <v>1</v>
@@ -23265,7 +23271,7 @@
         <v>1</v>
       </c>
       <c r="BV70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW70">
         <v>1</v>
@@ -23274,13 +23280,13 @@
         <v>1</v>
       </c>
       <c r="BY70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB70">
         <v>1</v>
@@ -23289,10 +23295,10 @@
         <v>1</v>
       </c>
       <c r="CD70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF70">
         <v>1</v>
@@ -23304,7 +23310,7 @@
         <v>1</v>
       </c>
       <c r="CI70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ70">
         <v>0</v>
@@ -23369,7 +23375,7 @@
         <v>175</v>
       </c>
       <c r="B71">
-        <v>14577</v>
+        <v>30625</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -23405,7 +23411,7 @@
         <v>0</v>
       </c>
       <c r="N71">
-        <v>5.1793921931810399E-2</v>
+        <v>0</v>
       </c>
       <c r="O71">
         <v>0</v>
@@ -23453,10 +23459,10 @@
         <v>0</v>
       </c>
       <c r="AD71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF71">
         <v>0</v>
@@ -23537,22 +23543,22 @@
         <v>1</v>
       </c>
       <c r="BF71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI71">
         <v>1</v>
       </c>
       <c r="BJ71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL71">
         <v>1</v>
@@ -23567,19 +23573,19 @@
         <v>1</v>
       </c>
       <c r="BP71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR71">
         <v>1</v>
       </c>
       <c r="BS71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU71">
         <v>1</v>
@@ -23588,37 +23594,37 @@
         <v>1</v>
       </c>
       <c r="BW71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX71">
         <v>1</v>
       </c>
       <c r="BY71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ71">
         <v>0</v>
       </c>
       <c r="CA71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB71">
         <v>1</v>
       </c>
       <c r="CC71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF71">
         <v>1</v>
       </c>
       <c r="CG71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH71">
         <v>1</v>
@@ -23689,7 +23695,7 @@
         <v>176</v>
       </c>
       <c r="B72">
-        <v>7156</v>
+        <v>6824</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -23716,7 +23722,7 @@
         <v>1</v>
       </c>
       <c r="K72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L72">
         <v>0</v>
@@ -23725,7 +23731,7 @@
         <v>0</v>
       </c>
       <c r="N72">
-        <v>0.25684740078256002</v>
+        <v>0</v>
       </c>
       <c r="O72">
         <v>0</v>
@@ -23761,7 +23767,7 @@
         <v>0</v>
       </c>
       <c r="Z72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA72">
         <v>0</v>
@@ -23860,10 +23866,10 @@
         <v>0</v>
       </c>
       <c r="BG72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI72">
         <v>0</v>
@@ -23878,7 +23884,7 @@
         <v>1</v>
       </c>
       <c r="BM72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN72">
         <v>1</v>
@@ -23893,13 +23899,13 @@
         <v>0</v>
       </c>
       <c r="BR72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS72">
         <v>1</v>
       </c>
       <c r="BT72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU72">
         <v>1</v>
@@ -23908,7 +23914,7 @@
         <v>1</v>
       </c>
       <c r="BW72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX72">
         <v>1</v>
@@ -23917,16 +23923,16 @@
         <v>0</v>
       </c>
       <c r="BZ72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB72">
         <v>1</v>
       </c>
       <c r="CC72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD72">
         <v>0</v>
@@ -23938,10 +23944,10 @@
         <v>0</v>
       </c>
       <c r="CG72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI72">
         <v>1</v>
@@ -24009,7 +24015,7 @@
         <v>177</v>
       </c>
       <c r="B73">
-        <v>23622</v>
+        <v>14577</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -24039,13 +24045,13 @@
         <v>0</v>
       </c>
       <c r="L73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M73">
         <v>0</v>
       </c>
       <c r="N73">
-        <v>0.277156887647109</v>
+        <v>5.1793921931810399E-2</v>
       </c>
       <c r="O73">
         <v>0</v>
@@ -24081,7 +24087,7 @@
         <v>0</v>
       </c>
       <c r="Z73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA73">
         <v>0</v>
@@ -24171,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="BD73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE73">
         <v>1</v>
@@ -24186,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="BI73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ73">
         <v>0</v>
@@ -24219,13 +24225,13 @@
         <v>0</v>
       </c>
       <c r="BT73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU73">
         <v>1</v>
       </c>
       <c r="BV73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW73">
         <v>0</v>
@@ -24258,7 +24264,7 @@
         <v>1</v>
       </c>
       <c r="CG73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH73">
         <v>1</v>
@@ -24329,7 +24335,7 @@
         <v>178</v>
       </c>
       <c r="B74">
-        <v>6350</v>
+        <v>7156</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -24365,7 +24371,7 @@
         <v>0</v>
       </c>
       <c r="N74">
-        <v>1</v>
+        <v>0.25684740078256002</v>
       </c>
       <c r="O74">
         <v>0</v>
@@ -24503,13 +24509,13 @@
         <v>0</v>
       </c>
       <c r="BH74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI74">
         <v>0</v>
       </c>
       <c r="BJ74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK74">
         <v>0</v>
@@ -24518,7 +24524,7 @@
         <v>1</v>
       </c>
       <c r="BM74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN74">
         <v>1</v>
@@ -24533,22 +24539,22 @@
         <v>0</v>
       </c>
       <c r="BR74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS74">
         <v>1</v>
       </c>
       <c r="BT74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV74">
         <v>1</v>
       </c>
       <c r="BW74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX74">
         <v>1</v>
@@ -24557,31 +24563,31 @@
         <v>0</v>
       </c>
       <c r="BZ74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG74">
         <v>0</v>
       </c>
       <c r="CH74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI74">
         <v>1</v>
@@ -24649,7 +24655,7 @@
         <v>179</v>
       </c>
       <c r="B75">
-        <v>2025</v>
+        <v>23622</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -24673,7 +24679,7 @@
         <v>0</v>
       </c>
       <c r="J75">
-        <v>0.66814814814814805</v>
+        <v>1</v>
       </c>
       <c r="K75">
         <v>0</v>
@@ -24685,7 +24691,7 @@
         <v>0</v>
       </c>
       <c r="N75">
-        <v>0.38765432098765401</v>
+        <v>0.277156887647109</v>
       </c>
       <c r="O75">
         <v>0</v>
@@ -24721,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="Z75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA75">
         <v>0</v>
@@ -24829,7 +24835,7 @@
         <v>0</v>
       </c>
       <c r="BJ75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK75">
         <v>0</v>
@@ -24853,22 +24859,22 @@
         <v>0</v>
       </c>
       <c r="BR75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX75">
         <v>1</v>
@@ -24895,13 +24901,13 @@
         <v>0</v>
       </c>
       <c r="CF75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI75">
         <v>1</v>
@@ -24969,7 +24975,7 @@
         <v>180</v>
       </c>
       <c r="B76">
-        <v>4785</v>
+        <v>6350</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -24999,13 +25005,13 @@
         <v>0</v>
       </c>
       <c r="L76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M76">
         <v>0</v>
       </c>
       <c r="N76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O76">
         <v>0</v>
@@ -25041,7 +25047,7 @@
         <v>0</v>
       </c>
       <c r="Z76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA76">
         <v>0</v>
@@ -25053,10 +25059,10 @@
         <v>0</v>
       </c>
       <c r="AD76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF76">
         <v>0</v>
@@ -25131,28 +25137,28 @@
         <v>0</v>
       </c>
       <c r="BD76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE76">
         <v>1</v>
       </c>
       <c r="BF76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH76">
         <v>1</v>
       </c>
       <c r="BI76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ76">
         <v>1</v>
       </c>
       <c r="BK76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL76">
         <v>1</v>
@@ -25167,13 +25173,13 @@
         <v>1</v>
       </c>
       <c r="BP76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS76">
         <v>1</v>
@@ -25182,7 +25188,7 @@
         <v>1</v>
       </c>
       <c r="BU76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV76">
         <v>1</v>
@@ -25194,16 +25200,16 @@
         <v>1</v>
       </c>
       <c r="BY76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA76">
         <v>1</v>
       </c>
       <c r="CB76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC76">
         <v>1</v>
@@ -25218,7 +25224,7 @@
         <v>1</v>
       </c>
       <c r="CG76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH76">
         <v>1</v>
@@ -25289,7 +25295,7 @@
         <v>181</v>
       </c>
       <c r="B77">
-        <v>2871</v>
+        <v>2025</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -25313,19 +25319,19 @@
         <v>0</v>
       </c>
       <c r="J77">
-        <v>1</v>
+        <v>0.66814814814814805</v>
       </c>
       <c r="K77">
         <v>0</v>
       </c>
       <c r="L77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M77">
         <v>0</v>
       </c>
       <c r="N77">
-        <v>0</v>
+        <v>0.38765432098765401</v>
       </c>
       <c r="O77">
         <v>0</v>
@@ -25373,10 +25379,10 @@
         <v>0</v>
       </c>
       <c r="AD77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF77">
         <v>0</v>
@@ -25451,28 +25457,28 @@
         <v>0</v>
       </c>
       <c r="BD77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE77">
         <v>1</v>
       </c>
       <c r="BF77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ77">
         <v>1</v>
       </c>
       <c r="BK77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL77">
         <v>1</v>
@@ -25487,22 +25493,22 @@
         <v>1</v>
       </c>
       <c r="BP77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS77">
         <v>1</v>
       </c>
       <c r="BT77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV77">
         <v>1</v>
@@ -25514,34 +25520,34 @@
         <v>1</v>
       </c>
       <c r="BY77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ77">
         <v>0</v>
       </c>
       <c r="CA77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB77">
         <v>1</v>
       </c>
       <c r="CC77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI77">
         <v>1</v>
@@ -25609,7 +25615,7 @@
         <v>182</v>
       </c>
       <c r="B78">
-        <v>6171</v>
+        <v>4785</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -25639,13 +25645,13 @@
         <v>0</v>
       </c>
       <c r="L78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M78">
         <v>0</v>
       </c>
       <c r="N78">
-        <v>0.136120563928051</v>
+        <v>0</v>
       </c>
       <c r="O78">
         <v>0</v>
@@ -25681,7 +25687,7 @@
         <v>0</v>
       </c>
       <c r="Z78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA78">
         <v>0</v>
@@ -25693,10 +25699,10 @@
         <v>0</v>
       </c>
       <c r="AD78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF78">
         <v>0</v>
@@ -25771,34 +25777,34 @@
         <v>0</v>
       </c>
       <c r="BD78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE78">
         <v>1</v>
       </c>
       <c r="BF78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL78">
         <v>1</v>
       </c>
       <c r="BM78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN78">
         <v>1</v>
@@ -25807,10 +25813,10 @@
         <v>1</v>
       </c>
       <c r="BP78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR78">
         <v>1</v>
@@ -25819,7 +25825,7 @@
         <v>1</v>
       </c>
       <c r="BT78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU78">
         <v>1</v>
@@ -25828,40 +25834,40 @@
         <v>1</v>
       </c>
       <c r="BW78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX78">
         <v>1</v>
       </c>
       <c r="BY78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ78">
         <v>0</v>
       </c>
       <c r="CA78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB78">
         <v>1</v>
       </c>
       <c r="CC78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI78">
         <v>1</v>
@@ -25929,7 +25935,7 @@
         <v>183</v>
       </c>
       <c r="B79">
-        <v>42711</v>
+        <v>2871</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -25965,7 +25971,7 @@
         <v>0</v>
       </c>
       <c r="N79">
-        <v>0.24223268010582799</v>
+        <v>0</v>
       </c>
       <c r="O79">
         <v>0</v>
@@ -26001,7 +26007,7 @@
         <v>0</v>
       </c>
       <c r="Z79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA79">
         <v>0</v>
@@ -26013,10 +26019,10 @@
         <v>0</v>
       </c>
       <c r="AD79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF79">
         <v>0</v>
@@ -26091,52 +26097,52 @@
         <v>0</v>
       </c>
       <c r="BD79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN79">
         <v>1</v>
       </c>
       <c r="BO79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR79">
         <v>1</v>
       </c>
       <c r="BS79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT79">
         <v>1</v>
@@ -26154,13 +26160,13 @@
         <v>1</v>
       </c>
       <c r="BY79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ79">
         <v>0</v>
       </c>
       <c r="CA79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB79">
         <v>1</v>
@@ -26169,19 +26175,19 @@
         <v>1</v>
       </c>
       <c r="CD79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG79">
         <v>1</v>
       </c>
       <c r="CH79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI79">
         <v>1</v>
@@ -26249,7 +26255,7 @@
         <v>184</v>
       </c>
       <c r="B80">
-        <v>10060</v>
+        <v>6171</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -26279,13 +26285,13 @@
         <v>0</v>
       </c>
       <c r="L80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M80">
         <v>0</v>
       </c>
       <c r="N80">
-        <v>0.30606361829025802</v>
+        <v>0.136120563928051</v>
       </c>
       <c r="O80">
         <v>0</v>
@@ -26321,7 +26327,7 @@
         <v>0</v>
       </c>
       <c r="Z80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA80">
         <v>0</v>
@@ -26423,7 +26429,7 @@
         <v>0</v>
       </c>
       <c r="BH80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI80">
         <v>0</v>
@@ -26438,7 +26444,7 @@
         <v>1</v>
       </c>
       <c r="BM80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN80">
         <v>1</v>
@@ -26453,7 +26459,7 @@
         <v>0</v>
       </c>
       <c r="BR80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS80">
         <v>1</v>
@@ -26465,7 +26471,7 @@
         <v>1</v>
       </c>
       <c r="BV80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW80">
         <v>0</v>
@@ -26474,19 +26480,19 @@
         <v>1</v>
       </c>
       <c r="BY80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA80">
         <v>0</v>
       </c>
       <c r="CB80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD80">
         <v>0</v>
@@ -26495,13 +26501,13 @@
         <v>0</v>
       </c>
       <c r="CF80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI80">
         <v>1</v>
@@ -26569,7 +26575,7 @@
         <v>185</v>
       </c>
       <c r="B81">
-        <v>16528</v>
+        <v>42711</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -26596,16 +26602,16 @@
         <v>1</v>
       </c>
       <c r="K81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M81">
         <v>0</v>
       </c>
       <c r="N81">
-        <v>0</v>
+        <v>0.24223268010582799</v>
       </c>
       <c r="O81">
         <v>0</v>
@@ -26641,7 +26647,7 @@
         <v>0</v>
       </c>
       <c r="Z81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA81">
         <v>0</v>
@@ -26734,7 +26740,7 @@
         <v>0</v>
       </c>
       <c r="BE81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF81">
         <v>0</v>
@@ -26743,7 +26749,7 @@
         <v>0</v>
       </c>
       <c r="BH81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI81">
         <v>0</v>
@@ -26752,19 +26758,19 @@
         <v>0</v>
       </c>
       <c r="BK81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN81">
         <v>1</v>
       </c>
       <c r="BO81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP81">
         <v>0</v>
@@ -26776,7 +26782,7 @@
         <v>1</v>
       </c>
       <c r="BS81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT81">
         <v>1</v>
@@ -26794,13 +26800,13 @@
         <v>1</v>
       </c>
       <c r="BY81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB81">
         <v>1</v>
@@ -26809,19 +26815,19 @@
         <v>1</v>
       </c>
       <c r="CD81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG81">
         <v>1</v>
       </c>
       <c r="CH81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI81">
         <v>1</v>
@@ -26889,7 +26895,7 @@
         <v>186</v>
       </c>
       <c r="B82">
-        <v>15627</v>
+        <v>10060</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -26913,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="J82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K82">
         <v>0</v>
@@ -26925,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="N82">
-        <v>9.9891213924617694E-2</v>
+        <v>0.30606361829025802</v>
       </c>
       <c r="O82">
         <v>0</v>
@@ -26961,7 +26967,7 @@
         <v>0</v>
       </c>
       <c r="Z82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA82">
         <v>0</v>
@@ -27051,7 +27057,7 @@
         <v>0</v>
       </c>
       <c r="BD82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE82">
         <v>1</v>
@@ -27066,7 +27072,7 @@
         <v>1</v>
       </c>
       <c r="BI82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ82">
         <v>0</v>
@@ -27090,13 +27096,13 @@
         <v>0</v>
       </c>
       <c r="BQ82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT82">
         <v>0</v>
@@ -27105,7 +27111,7 @@
         <v>1</v>
       </c>
       <c r="BV82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW82">
         <v>0</v>
@@ -27117,16 +27123,16 @@
         <v>1</v>
       </c>
       <c r="BZ82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA82">
         <v>0</v>
       </c>
       <c r="CB82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD82">
         <v>0</v>
@@ -27209,7 +27215,7 @@
         <v>187</v>
       </c>
       <c r="B83">
-        <v>6888</v>
+        <v>16528</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -27236,7 +27242,7 @@
         <v>1</v>
       </c>
       <c r="K83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L83">
         <v>0</v>
@@ -27245,7 +27251,7 @@
         <v>0</v>
       </c>
       <c r="N83">
-        <v>0.965301974448316</v>
+        <v>0</v>
       </c>
       <c r="O83">
         <v>0</v>
@@ -27281,7 +27287,7 @@
         <v>0</v>
       </c>
       <c r="Z83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA83">
         <v>0</v>
@@ -27392,7 +27398,7 @@
         <v>0</v>
       </c>
       <c r="BK83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL83">
         <v>1</v>
@@ -27413,10 +27419,10 @@
         <v>0</v>
       </c>
       <c r="BR83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT83">
         <v>1</v>
@@ -27425,7 +27431,7 @@
         <v>1</v>
       </c>
       <c r="BV83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW83">
         <v>1</v>
@@ -27434,22 +27440,22 @@
         <v>1</v>
       </c>
       <c r="BY83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ83">
         <v>1</v>
       </c>
       <c r="CA83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE83">
         <v>0</v>
@@ -27461,7 +27467,7 @@
         <v>1</v>
       </c>
       <c r="CH83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI83">
         <v>1</v>
@@ -27529,7 +27535,7 @@
         <v>188</v>
       </c>
       <c r="B84">
-        <v>5588</v>
+        <v>15627</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -27553,19 +27559,19 @@
         <v>0</v>
       </c>
       <c r="J84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K84">
         <v>0</v>
       </c>
       <c r="L84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M84">
         <v>0</v>
       </c>
       <c r="N84">
-        <v>0.34860415175375797</v>
+        <v>9.9891213924617694E-2</v>
       </c>
       <c r="O84">
         <v>0</v>
@@ -27601,7 +27607,7 @@
         <v>0</v>
       </c>
       <c r="Z84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA84">
         <v>0</v>
@@ -27697,10 +27703,10 @@
         <v>1</v>
       </c>
       <c r="BF84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH84">
         <v>1</v>
@@ -27709,10 +27715,10 @@
         <v>1</v>
       </c>
       <c r="BJ84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL84">
         <v>1</v>
@@ -27727,7 +27733,7 @@
         <v>1</v>
       </c>
       <c r="BP84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ84">
         <v>1</v>
@@ -27736,10 +27742,10 @@
         <v>1</v>
       </c>
       <c r="BS84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU84">
         <v>1</v>
@@ -27748,7 +27754,7 @@
         <v>1</v>
       </c>
       <c r="BW84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX84">
         <v>1</v>
@@ -27760,19 +27766,19 @@
         <v>0</v>
       </c>
       <c r="CA84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB84">
         <v>1</v>
       </c>
       <c r="CC84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF84">
         <v>1</v>
@@ -27781,7 +27787,7 @@
         <v>1</v>
       </c>
       <c r="CH84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI84">
         <v>1</v>
@@ -27849,7 +27855,7 @@
         <v>189</v>
       </c>
       <c r="B85">
-        <v>9334</v>
+        <v>6888</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -27885,7 +27891,7 @@
         <v>0</v>
       </c>
       <c r="N85">
-        <v>1</v>
+        <v>0.965301974448316</v>
       </c>
       <c r="O85">
         <v>0</v>
@@ -28023,7 +28029,7 @@
         <v>0</v>
       </c>
       <c r="BH85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI85">
         <v>0</v>
@@ -28053,19 +28059,19 @@
         <v>0</v>
       </c>
       <c r="BR85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW85">
         <v>1</v>
@@ -28077,16 +28083,16 @@
         <v>0</v>
       </c>
       <c r="BZ85">
-        <v>8.0351403471180596E-3</v>
+        <v>1</v>
       </c>
       <c r="CA85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC85">
-        <v>2.1962716948789401E-2</v>
+        <v>0</v>
       </c>
       <c r="CD85">
         <v>0</v>
@@ -28101,7 +28107,7 @@
         <v>1</v>
       </c>
       <c r="CH85">
-        <v>6.4281122776944498E-4</v>
+        <v>0</v>
       </c>
       <c r="CI85">
         <v>1</v>
@@ -28169,329 +28175,969 @@
         <v>190</v>
       </c>
       <c r="B86">
+        <v>5588</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>0.34860415175375797</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+      <c r="P86">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <v>0</v>
+      </c>
+      <c r="R86">
+        <v>0</v>
+      </c>
+      <c r="S86">
+        <v>0</v>
+      </c>
+      <c r="T86">
+        <v>1</v>
+      </c>
+      <c r="U86">
+        <v>0</v>
+      </c>
+      <c r="V86">
+        <v>0</v>
+      </c>
+      <c r="W86">
+        <v>0</v>
+      </c>
+      <c r="X86">
+        <v>0</v>
+      </c>
+      <c r="Y86">
+        <v>0</v>
+      </c>
+      <c r="Z86">
+        <v>1</v>
+      </c>
+      <c r="AA86">
+        <v>0</v>
+      </c>
+      <c r="AB86">
+        <v>0</v>
+      </c>
+      <c r="AC86">
+        <v>0</v>
+      </c>
+      <c r="AD86">
+        <v>0</v>
+      </c>
+      <c r="AE86">
+        <v>0</v>
+      </c>
+      <c r="AF86">
+        <v>0</v>
+      </c>
+      <c r="AG86">
+        <v>0</v>
+      </c>
+      <c r="AH86">
+        <v>0</v>
+      </c>
+      <c r="AI86">
+        <v>0</v>
+      </c>
+      <c r="AJ86">
+        <v>0</v>
+      </c>
+      <c r="AK86">
+        <v>0</v>
+      </c>
+      <c r="AL86">
+        <v>0</v>
+      </c>
+      <c r="AM86">
+        <v>0</v>
+      </c>
+      <c r="AN86">
+        <v>0</v>
+      </c>
+      <c r="AO86">
+        <v>0</v>
+      </c>
+      <c r="AP86">
+        <v>0</v>
+      </c>
+      <c r="AQ86">
+        <v>0</v>
+      </c>
+      <c r="AR86">
+        <v>0</v>
+      </c>
+      <c r="AS86">
+        <v>0</v>
+      </c>
+      <c r="AT86">
+        <v>0</v>
+      </c>
+      <c r="AU86">
+        <v>0</v>
+      </c>
+      <c r="AV86">
+        <v>0</v>
+      </c>
+      <c r="AW86">
+        <v>0</v>
+      </c>
+      <c r="AX86">
+        <v>0</v>
+      </c>
+      <c r="AY86">
+        <v>0</v>
+      </c>
+      <c r="AZ86">
+        <v>0</v>
+      </c>
+      <c r="BA86">
+        <v>0</v>
+      </c>
+      <c r="BB86">
+        <v>0</v>
+      </c>
+      <c r="BC86">
+        <v>0</v>
+      </c>
+      <c r="BD86">
+        <v>1</v>
+      </c>
+      <c r="BE86">
+        <v>1</v>
+      </c>
+      <c r="BF86">
+        <v>1</v>
+      </c>
+      <c r="BG86">
+        <v>1</v>
+      </c>
+      <c r="BH86">
+        <v>1</v>
+      </c>
+      <c r="BI86">
+        <v>1</v>
+      </c>
+      <c r="BJ86">
+        <v>1</v>
+      </c>
+      <c r="BK86">
+        <v>1</v>
+      </c>
+      <c r="BL86">
+        <v>1</v>
+      </c>
+      <c r="BM86">
+        <v>1</v>
+      </c>
+      <c r="BN86">
+        <v>1</v>
+      </c>
+      <c r="BO86">
+        <v>1</v>
+      </c>
+      <c r="BP86">
+        <v>1</v>
+      </c>
+      <c r="BQ86">
+        <v>1</v>
+      </c>
+      <c r="BR86">
+        <v>1</v>
+      </c>
+      <c r="BS86">
+        <v>1</v>
+      </c>
+      <c r="BT86">
+        <v>1</v>
+      </c>
+      <c r="BU86">
+        <v>1</v>
+      </c>
+      <c r="BV86">
+        <v>1</v>
+      </c>
+      <c r="BW86">
+        <v>1</v>
+      </c>
+      <c r="BX86">
+        <v>1</v>
+      </c>
+      <c r="BY86">
+        <v>0</v>
+      </c>
+      <c r="BZ86">
+        <v>0</v>
+      </c>
+      <c r="CA86">
+        <v>1</v>
+      </c>
+      <c r="CB86">
+        <v>1</v>
+      </c>
+      <c r="CC86">
+        <v>1</v>
+      </c>
+      <c r="CD86">
+        <v>1</v>
+      </c>
+      <c r="CE86">
+        <v>1</v>
+      </c>
+      <c r="CF86">
+        <v>1</v>
+      </c>
+      <c r="CG86">
+        <v>1</v>
+      </c>
+      <c r="CH86">
+        <v>0</v>
+      </c>
+      <c r="CI86">
+        <v>1</v>
+      </c>
+      <c r="CJ86">
+        <v>0</v>
+      </c>
+      <c r="CK86">
+        <v>0</v>
+      </c>
+      <c r="CL86">
+        <v>0</v>
+      </c>
+      <c r="CM86">
+        <v>0</v>
+      </c>
+      <c r="CN86">
+        <v>0</v>
+      </c>
+      <c r="CO86">
+        <v>0</v>
+      </c>
+      <c r="CP86">
+        <v>0</v>
+      </c>
+      <c r="CQ86">
+        <v>0</v>
+      </c>
+      <c r="CR86">
+        <v>0</v>
+      </c>
+      <c r="CS86">
+        <v>0</v>
+      </c>
+      <c r="CT86">
+        <v>0</v>
+      </c>
+      <c r="CU86">
+        <v>0</v>
+      </c>
+      <c r="CV86">
+        <v>0</v>
+      </c>
+      <c r="CW86">
+        <v>0</v>
+      </c>
+      <c r="CX86">
+        <v>0</v>
+      </c>
+      <c r="CY86">
+        <v>0</v>
+      </c>
+      <c r="CZ86">
+        <v>0</v>
+      </c>
+      <c r="DA86">
+        <v>0</v>
+      </c>
+      <c r="DB86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:106" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>191</v>
+      </c>
+      <c r="B87">
+        <v>9378</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>0.13990189805928799</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+      <c r="P87">
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <v>0</v>
+      </c>
+      <c r="R87">
+        <v>0</v>
+      </c>
+      <c r="S87">
+        <v>0</v>
+      </c>
+      <c r="T87">
+        <v>1</v>
+      </c>
+      <c r="U87">
+        <v>0</v>
+      </c>
+      <c r="V87">
+        <v>0</v>
+      </c>
+      <c r="W87">
+        <v>0</v>
+      </c>
+      <c r="X87">
+        <v>0</v>
+      </c>
+      <c r="Y87">
+        <v>0</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+      <c r="AA87">
+        <v>0</v>
+      </c>
+      <c r="AB87">
+        <v>0</v>
+      </c>
+      <c r="AC87">
+        <v>0</v>
+      </c>
+      <c r="AD87">
+        <v>0</v>
+      </c>
+      <c r="AE87">
+        <v>0</v>
+      </c>
+      <c r="AF87">
+        <v>0</v>
+      </c>
+      <c r="AG87">
+        <v>0</v>
+      </c>
+      <c r="AH87">
+        <v>0</v>
+      </c>
+      <c r="AI87">
+        <v>0</v>
+      </c>
+      <c r="AJ87">
+        <v>0</v>
+      </c>
+      <c r="AK87">
+        <v>0</v>
+      </c>
+      <c r="AL87">
+        <v>0</v>
+      </c>
+      <c r="AM87">
+        <v>0</v>
+      </c>
+      <c r="AN87">
+        <v>0</v>
+      </c>
+      <c r="AO87">
+        <v>0</v>
+      </c>
+      <c r="AP87">
+        <v>0</v>
+      </c>
+      <c r="AQ87">
+        <v>0</v>
+      </c>
+      <c r="AR87">
+        <v>0</v>
+      </c>
+      <c r="AS87">
+        <v>0</v>
+      </c>
+      <c r="AT87">
+        <v>0</v>
+      </c>
+      <c r="AU87">
+        <v>0</v>
+      </c>
+      <c r="AV87">
+        <v>0</v>
+      </c>
+      <c r="AW87">
+        <v>0</v>
+      </c>
+      <c r="AX87">
+        <v>0</v>
+      </c>
+      <c r="AY87">
+        <v>0</v>
+      </c>
+      <c r="AZ87">
+        <v>0</v>
+      </c>
+      <c r="BA87">
+        <v>0</v>
+      </c>
+      <c r="BB87">
+        <v>0</v>
+      </c>
+      <c r="BC87">
+        <v>0</v>
+      </c>
+      <c r="BD87">
+        <v>0</v>
+      </c>
+      <c r="BE87">
+        <v>1</v>
+      </c>
+      <c r="BF87">
+        <v>0</v>
+      </c>
+      <c r="BG87">
+        <v>0</v>
+      </c>
+      <c r="BH87">
+        <v>0</v>
+      </c>
+      <c r="BI87">
+        <v>0</v>
+      </c>
+      <c r="BJ87">
+        <v>0</v>
+      </c>
+      <c r="BK87">
+        <v>0</v>
+      </c>
+      <c r="BL87">
+        <v>1</v>
+      </c>
+      <c r="BM87">
+        <v>1</v>
+      </c>
+      <c r="BN87">
+        <v>1</v>
+      </c>
+      <c r="BO87">
+        <v>1</v>
+      </c>
+      <c r="BP87">
+        <v>0</v>
+      </c>
+      <c r="BQ87">
+        <v>0</v>
+      </c>
+      <c r="BR87">
+        <v>1</v>
+      </c>
+      <c r="BS87">
+        <v>1</v>
+      </c>
+      <c r="BT87">
+        <v>0</v>
+      </c>
+      <c r="BU87">
+        <v>0</v>
+      </c>
+      <c r="BV87">
+        <v>1</v>
+      </c>
+      <c r="BW87">
+        <v>1</v>
+      </c>
+      <c r="BX87">
+        <v>1</v>
+      </c>
+      <c r="BY87">
+        <v>0</v>
+      </c>
+      <c r="BZ87">
+        <v>0</v>
+      </c>
+      <c r="CA87">
+        <v>1</v>
+      </c>
+      <c r="CB87">
+        <v>1</v>
+      </c>
+      <c r="CC87">
+        <v>0</v>
+      </c>
+      <c r="CD87">
+        <v>0</v>
+      </c>
+      <c r="CE87">
+        <v>0</v>
+      </c>
+      <c r="CF87">
+        <v>1</v>
+      </c>
+      <c r="CG87">
+        <v>1</v>
+      </c>
+      <c r="CH87">
+        <v>0</v>
+      </c>
+      <c r="CI87">
+        <v>1</v>
+      </c>
+      <c r="CJ87">
+        <v>0</v>
+      </c>
+      <c r="CK87">
+        <v>0</v>
+      </c>
+      <c r="CL87">
+        <v>0</v>
+      </c>
+      <c r="CM87">
+        <v>0</v>
+      </c>
+      <c r="CN87">
+        <v>0</v>
+      </c>
+      <c r="CO87">
+        <v>0</v>
+      </c>
+      <c r="CP87">
+        <v>0</v>
+      </c>
+      <c r="CQ87">
+        <v>0</v>
+      </c>
+      <c r="CR87">
+        <v>0</v>
+      </c>
+      <c r="CS87">
+        <v>0</v>
+      </c>
+      <c r="CT87">
+        <v>0</v>
+      </c>
+      <c r="CU87">
+        <v>0</v>
+      </c>
+      <c r="CV87">
+        <v>0</v>
+      </c>
+      <c r="CW87">
+        <v>0</v>
+      </c>
+      <c r="CX87">
+        <v>0</v>
+      </c>
+      <c r="CY87">
+        <v>0</v>
+      </c>
+      <c r="CZ87">
+        <v>0</v>
+      </c>
+      <c r="DA87">
+        <v>0</v>
+      </c>
+      <c r="DB87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:106" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>192</v>
+      </c>
+      <c r="B88">
         <v>22964</v>
       </c>
-      <c r="C86">
-        <v>0</v>
-      </c>
-      <c r="D86">
-        <v>0</v>
-      </c>
-      <c r="E86">
-        <v>0</v>
-      </c>
-      <c r="F86">
-        <v>0</v>
-      </c>
-      <c r="G86">
-        <v>0</v>
-      </c>
-      <c r="H86">
-        <v>0</v>
-      </c>
-      <c r="I86">
-        <v>0</v>
-      </c>
-      <c r="J86">
-        <v>1</v>
-      </c>
-      <c r="K86">
-        <v>0</v>
-      </c>
-      <c r="L86">
-        <v>1</v>
-      </c>
-      <c r="M86">
-        <v>0</v>
-      </c>
-      <c r="N86">
-        <v>1</v>
-      </c>
-      <c r="O86">
-        <v>0</v>
-      </c>
-      <c r="P86">
-        <v>0</v>
-      </c>
-      <c r="Q86">
-        <v>0</v>
-      </c>
-      <c r="R86">
-        <v>0</v>
-      </c>
-      <c r="S86">
-        <v>0</v>
-      </c>
-      <c r="T86">
-        <v>1</v>
-      </c>
-      <c r="U86">
-        <v>0</v>
-      </c>
-      <c r="V86">
-        <v>0</v>
-      </c>
-      <c r="W86">
-        <v>0</v>
-      </c>
-      <c r="X86">
-        <v>0</v>
-      </c>
-      <c r="Y86">
-        <v>0</v>
-      </c>
-      <c r="Z86">
-        <v>0</v>
-      </c>
-      <c r="AA86">
-        <v>0</v>
-      </c>
-      <c r="AB86">
-        <v>0</v>
-      </c>
-      <c r="AC86">
-        <v>0</v>
-      </c>
-      <c r="AD86">
-        <v>0</v>
-      </c>
-      <c r="AE86">
-        <v>0</v>
-      </c>
-      <c r="AF86">
-        <v>0</v>
-      </c>
-      <c r="AG86">
-        <v>0</v>
-      </c>
-      <c r="AH86">
-        <v>0</v>
-      </c>
-      <c r="AI86">
-        <v>0</v>
-      </c>
-      <c r="AJ86">
-        <v>0</v>
-      </c>
-      <c r="AK86">
-        <v>0</v>
-      </c>
-      <c r="AL86">
-        <v>0</v>
-      </c>
-      <c r="AM86">
-        <v>0</v>
-      </c>
-      <c r="AN86">
-        <v>0</v>
-      </c>
-      <c r="AO86">
-        <v>0</v>
-      </c>
-      <c r="AP86">
-        <v>0</v>
-      </c>
-      <c r="AQ86">
-        <v>0</v>
-      </c>
-      <c r="AR86">
-        <v>0</v>
-      </c>
-      <c r="AS86">
-        <v>0</v>
-      </c>
-      <c r="AT86">
-        <v>0</v>
-      </c>
-      <c r="AU86">
-        <v>0</v>
-      </c>
-      <c r="AV86">
-        <v>0</v>
-      </c>
-      <c r="AW86">
-        <v>0</v>
-      </c>
-      <c r="AX86">
-        <v>0</v>
-      </c>
-      <c r="AY86">
-        <v>0</v>
-      </c>
-      <c r="AZ86">
-        <v>0</v>
-      </c>
-      <c r="BA86">
-        <v>0</v>
-      </c>
-      <c r="BB86">
-        <v>0</v>
-      </c>
-      <c r="BC86">
-        <v>0</v>
-      </c>
-      <c r="BD86">
-        <v>1</v>
-      </c>
-      <c r="BE86">
-        <v>0</v>
-      </c>
-      <c r="BF86">
-        <v>0</v>
-      </c>
-      <c r="BG86">
-        <v>0</v>
-      </c>
-      <c r="BH86">
-        <v>1</v>
-      </c>
-      <c r="BI86">
-        <v>1</v>
-      </c>
-      <c r="BJ86">
-        <v>0</v>
-      </c>
-      <c r="BK86">
-        <v>0</v>
-      </c>
-      <c r="BL86">
-        <v>0</v>
-      </c>
-      <c r="BM86">
-        <v>1</v>
-      </c>
-      <c r="BN86">
-        <v>1</v>
-      </c>
-      <c r="BO86">
-        <v>1</v>
-      </c>
-      <c r="BP86">
-        <v>0</v>
-      </c>
-      <c r="BQ86">
-        <v>0</v>
-      </c>
-      <c r="BR86">
-        <v>0</v>
-      </c>
-      <c r="BS86">
-        <v>0</v>
-      </c>
-      <c r="BT86">
-        <v>0</v>
-      </c>
-      <c r="BU86">
-        <v>1</v>
-      </c>
-      <c r="BV86">
-        <v>0</v>
-      </c>
-      <c r="BW86">
-        <v>0</v>
-      </c>
-      <c r="BX86">
-        <v>1</v>
-      </c>
-      <c r="BY86">
-        <v>0</v>
-      </c>
-      <c r="BZ86">
-        <v>1</v>
-      </c>
-      <c r="CA86">
-        <v>0</v>
-      </c>
-      <c r="CB86">
-        <v>0</v>
-      </c>
-      <c r="CC86">
-        <v>0</v>
-      </c>
-      <c r="CD86">
-        <v>0</v>
-      </c>
-      <c r="CE86">
-        <v>0</v>
-      </c>
-      <c r="CF86">
-        <v>1</v>
-      </c>
-      <c r="CG86">
-        <v>1</v>
-      </c>
-      <c r="CH86">
-        <v>0</v>
-      </c>
-      <c r="CI86">
-        <v>1</v>
-      </c>
-      <c r="CJ86">
-        <v>0</v>
-      </c>
-      <c r="CK86">
-        <v>0</v>
-      </c>
-      <c r="CL86">
-        <v>0</v>
-      </c>
-      <c r="CM86">
-        <v>0</v>
-      </c>
-      <c r="CN86">
-        <v>0</v>
-      </c>
-      <c r="CO86">
-        <v>0</v>
-      </c>
-      <c r="CP86">
-        <v>0</v>
-      </c>
-      <c r="CQ86">
-        <v>0</v>
-      </c>
-      <c r="CR86">
-        <v>0</v>
-      </c>
-      <c r="CS86">
-        <v>0</v>
-      </c>
-      <c r="CT86">
-        <v>0</v>
-      </c>
-      <c r="CU86">
-        <v>0</v>
-      </c>
-      <c r="CV86">
-        <v>0</v>
-      </c>
-      <c r="CW86">
-        <v>0</v>
-      </c>
-      <c r="CX86">
-        <v>0</v>
-      </c>
-      <c r="CY86">
-        <v>0</v>
-      </c>
-      <c r="CZ86">
-        <v>0</v>
-      </c>
-      <c r="DA86">
-        <v>0</v>
-      </c>
-      <c r="DB86">
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>1</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+      <c r="P88">
+        <v>0</v>
+      </c>
+      <c r="Q88">
+        <v>0</v>
+      </c>
+      <c r="R88">
+        <v>0</v>
+      </c>
+      <c r="S88">
+        <v>0</v>
+      </c>
+      <c r="T88">
+        <v>1</v>
+      </c>
+      <c r="U88">
+        <v>0</v>
+      </c>
+      <c r="V88">
+        <v>0</v>
+      </c>
+      <c r="W88">
+        <v>0</v>
+      </c>
+      <c r="X88">
+        <v>0</v>
+      </c>
+      <c r="Y88">
+        <v>0</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+      <c r="AA88">
+        <v>0</v>
+      </c>
+      <c r="AB88">
+        <v>0</v>
+      </c>
+      <c r="AC88">
+        <v>0</v>
+      </c>
+      <c r="AD88">
+        <v>0</v>
+      </c>
+      <c r="AE88">
+        <v>0</v>
+      </c>
+      <c r="AF88">
+        <v>0</v>
+      </c>
+      <c r="AG88">
+        <v>0</v>
+      </c>
+      <c r="AH88">
+        <v>0</v>
+      </c>
+      <c r="AI88">
+        <v>0</v>
+      </c>
+      <c r="AJ88">
+        <v>0</v>
+      </c>
+      <c r="AK88">
+        <v>0</v>
+      </c>
+      <c r="AL88">
+        <v>0</v>
+      </c>
+      <c r="AM88">
+        <v>0</v>
+      </c>
+      <c r="AN88">
+        <v>0</v>
+      </c>
+      <c r="AO88">
+        <v>0</v>
+      </c>
+      <c r="AP88">
+        <v>0</v>
+      </c>
+      <c r="AQ88">
+        <v>0</v>
+      </c>
+      <c r="AR88">
+        <v>0</v>
+      </c>
+      <c r="AS88">
+        <v>0</v>
+      </c>
+      <c r="AT88">
+        <v>0</v>
+      </c>
+      <c r="AU88">
+        <v>0</v>
+      </c>
+      <c r="AV88">
+        <v>0</v>
+      </c>
+      <c r="AW88">
+        <v>0</v>
+      </c>
+      <c r="AX88">
+        <v>0</v>
+      </c>
+      <c r="AY88">
+        <v>0</v>
+      </c>
+      <c r="AZ88">
+        <v>0</v>
+      </c>
+      <c r="BA88">
+        <v>0</v>
+      </c>
+      <c r="BB88">
+        <v>0</v>
+      </c>
+      <c r="BC88">
+        <v>0</v>
+      </c>
+      <c r="BD88">
+        <v>1</v>
+      </c>
+      <c r="BE88">
+        <v>0</v>
+      </c>
+      <c r="BF88">
+        <v>0</v>
+      </c>
+      <c r="BG88">
+        <v>0</v>
+      </c>
+      <c r="BH88">
+        <v>1</v>
+      </c>
+      <c r="BI88">
+        <v>1</v>
+      </c>
+      <c r="BJ88">
+        <v>0</v>
+      </c>
+      <c r="BK88">
+        <v>0</v>
+      </c>
+      <c r="BL88">
+        <v>0</v>
+      </c>
+      <c r="BM88">
+        <v>1</v>
+      </c>
+      <c r="BN88">
+        <v>1</v>
+      </c>
+      <c r="BO88">
+        <v>1</v>
+      </c>
+      <c r="BP88">
+        <v>0</v>
+      </c>
+      <c r="BQ88">
+        <v>0</v>
+      </c>
+      <c r="BR88">
+        <v>0</v>
+      </c>
+      <c r="BS88">
+        <v>0</v>
+      </c>
+      <c r="BT88">
+        <v>0</v>
+      </c>
+      <c r="BU88">
+        <v>1</v>
+      </c>
+      <c r="BV88">
+        <v>0</v>
+      </c>
+      <c r="BW88">
+        <v>0</v>
+      </c>
+      <c r="BX88">
+        <v>1</v>
+      </c>
+      <c r="BY88">
+        <v>0</v>
+      </c>
+      <c r="BZ88">
+        <v>1</v>
+      </c>
+      <c r="CA88">
+        <v>0</v>
+      </c>
+      <c r="CB88">
+        <v>0</v>
+      </c>
+      <c r="CC88">
+        <v>0</v>
+      </c>
+      <c r="CD88">
+        <v>0</v>
+      </c>
+      <c r="CE88">
+        <v>0</v>
+      </c>
+      <c r="CF88">
+        <v>1</v>
+      </c>
+      <c r="CG88">
+        <v>1</v>
+      </c>
+      <c r="CH88">
+        <v>0</v>
+      </c>
+      <c r="CI88">
+        <v>1</v>
+      </c>
+      <c r="CJ88">
+        <v>0</v>
+      </c>
+      <c r="CK88">
+        <v>0</v>
+      </c>
+      <c r="CL88">
+        <v>0</v>
+      </c>
+      <c r="CM88">
+        <v>0</v>
+      </c>
+      <c r="CN88">
+        <v>0</v>
+      </c>
+      <c r="CO88">
+        <v>0</v>
+      </c>
+      <c r="CP88">
+        <v>0</v>
+      </c>
+      <c r="CQ88">
+        <v>0</v>
+      </c>
+      <c r="CR88">
+        <v>0</v>
+      </c>
+      <c r="CS88">
+        <v>0</v>
+      </c>
+      <c r="CT88">
+        <v>0</v>
+      </c>
+      <c r="CU88">
+        <v>0</v>
+      </c>
+      <c r="CV88">
+        <v>0</v>
+      </c>
+      <c r="CW88">
+        <v>0</v>
+      </c>
+      <c r="CX88">
+        <v>0</v>
+      </c>
+      <c r="CY88">
+        <v>0</v>
+      </c>
+      <c r="CZ88">
+        <v>0</v>
+      </c>
+      <c r="DA88">
+        <v>0</v>
+      </c>
+      <c r="DB88">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:DB1048576">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+  <conditionalFormatting sqref="A1:DB88">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="between">
+      <formula>0.000001</formula>
+      <formula>0.9999999</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="between">
-      <formula>0.00000001</formula>
-      <formula>0.999999999</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
